--- a/species_sardana_config_20181205.xlsx
+++ b/species_sardana_config_20181205.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
-  <workbookPr date1904="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aurfre/Desktop/maxiv_links_-_IPs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6429594-BD3E-AD47-8F3C-1D8517D2C198}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowWidth="19200" windowHeight="9360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -21,67 +27,74 @@
     <sheet name="Instruments" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase">Servers!$A$1:$H$2</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="9">{#NAME?}</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="7">{#NAME?}</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="8">{#NAME?}</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="3">{#NAME?}</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="2">{#NAME?}</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">{#NAME?}</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="11">{#NAME?}</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="6">{#NAME?}</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="4">{#NAME?}</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="10">{#NAME?}</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="1">{#NAME?}</definedName>
     <definedName name="Excel_BuiltIn_Print_Titles">CommunicationChannels!A1:IV1</definedName>
+    <definedName name="Excel_BuiltIn_Sheet_Title" localSheetId="9">"Acquisition"</definedName>
+    <definedName name="Excel_BuiltIn_Sheet_Title" localSheetId="7">"Channels"</definedName>
+    <definedName name="Excel_BuiltIn_Sheet_Title" localSheetId="8">"CommunicationChannels"</definedName>
+    <definedName name="Excel_BuiltIn_Sheet_Title" localSheetId="3">"Controllers"</definedName>
+    <definedName name="Excel_BuiltIn_Sheet_Title" localSheetId="2">"Doors"</definedName>
+    <definedName name="Excel_BuiltIn_Sheet_Title" localSheetId="0">"Global"</definedName>
+    <definedName name="Excel_BuiltIn_Sheet_Title" localSheetId="11">"Instruments"</definedName>
+    <definedName name="Excel_BuiltIn_Sheet_Title" localSheetId="6">"IORegisters"</definedName>
+    <definedName name="Excel_BuiltIn_Sheet_Title" localSheetId="4">"Motors"</definedName>
+    <definedName name="Excel_BuiltIn_Sheet_Title" localSheetId="10">"Parameters"</definedName>
+    <definedName name="Excel_BuiltIn_Sheet_Title" localSheetId="1">"Servers"</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
     <definedName name="Print_Titles_1">0</definedName>
     <definedName name="Print_Titles_2">0</definedName>
     <definedName name="Print_Titles_3">0</definedName>
     <definedName name="Print_Titles_4">0</definedName>
     <definedName name="Print_Titles_5">0</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase">Servers!$A$1:$H$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="9">"Acquisition"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="7">"Channels"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="8">"CommunicationChannels"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="3">"Controllers"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="2">"Doors"</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="0">"Global"</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">{#NAME?}</definedName>
-    <definedName name="Excel_BuiltIn_Sheet_Title" localSheetId="0">"Global"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="11">"Instruments"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="6">"IORegisters"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="4">"Motors"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="10">"Parameters"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="5">"PseudoMotors"</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="1">"Servers"</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="1">{#NAME?}</definedName>
-    <definedName name="Excel_BuiltIn_Sheet_Title" localSheetId="1">"Servers"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="2">"Doors"</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="2">{#NAME?}</definedName>
-    <definedName name="Excel_BuiltIn_Sheet_Title" localSheetId="2">"Doors"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="3">"Controllers"</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="3">{#NAME?}</definedName>
-    <definedName name="Excel_BuiltIn_Sheet_Title" localSheetId="3">"Controllers"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="4">"Motors"</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="4">{#NAME?}</definedName>
-    <definedName name="Excel_BuiltIn_Sheet_Title" localSheetId="4">"Motors"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="5">"PseudoMotors"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="6">"IORegisters"</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="6">{#NAME?}</definedName>
-    <definedName name="Excel_BuiltIn_Sheet_Title" localSheetId="6">"IORegisters"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="7">"Channels"</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="7">{#NAME?}</definedName>
-    <definedName name="Excel_BuiltIn_Sheet_Title" localSheetId="7">"Channels"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="8">"CommunicationChannels"</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="8">{#NAME?}</definedName>
-    <definedName name="Excel_BuiltIn_Sheet_Title" localSheetId="8">"CommunicationChannels"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="9">"Acquisition"</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="9">{#NAME?}</definedName>
-    <definedName name="Excel_BuiltIn_Sheet_Title" localSheetId="9">"Acquisition"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="10">"Parameters"</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="10">{#NAME?}</definedName>
-    <definedName name="Excel_BuiltIn_Sheet_Title" localSheetId="10">"Parameters"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="11">"Instruments"</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="11">{#NAME?}</definedName>
-    <definedName name="Excel_BuiltIn_Sheet_Title" localSheetId="11">"Instruments"</definedName>
   </definedNames>
-  <calcPr calcMode="auto" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
-  <webPublishing allowPng="1" css="0" codePage="1252"/>
+  <calcPr calcId="191029"/>
+  <webPublishing css="0" allowPng="1" codePage="1252"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98" count="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="328">
   <si>
     <t>name</t>
   </si>
@@ -375,155 +388,792 @@
   </si>
   <si>
     <t>Hutch</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B108A</t>
+  </si>
+  <si>
+    <t>SPECIES</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Pool for the SPECIES beamline</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Pools</t>
+  </si>
+  <si>
+    <t>Pool/B108A</t>
+  </si>
+  <si>
+    <t>The SPECIES main Device Pool.</t>
+  </si>
+  <si>
+    <t>Pool_B108A</t>
+  </si>
+  <si>
+    <t>/usr/lib/python2.7/site-packages/sardana_ctrl/motor
+/usr/lib/python2.7/site-packages/sardana_ctrl/motor/IcePAPCtrl
+/usr/lib/python2.7/site-packages/sardana_ctrl/pseudocounter
+/usr/lib/python2.7/site-packages/sardana_ctrl/countertimer
+/usr/lib/python2.7/site-packages/sardana_ctrl/pseudomotor/MAXIV_SOFTXRAY
+/usr/lib/python2.7/site-packages/sardana_ctrl/ioregister
+/usr/lib/python2.7/site-packages/sardana_ctrl/countertimer/albaem2
+/usr/lib/python2.7/site-packages/speciesctrls</t>
+  </si>
+  <si>
+    <t>The SPECIES main Macro Server.</t>
+  </si>
+  <si>
+    <t>MS_B108A</t>
+  </si>
+  <si>
+    <t>/usr/lib/python2.7/site-packages/MAXIV_SPECIES</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>MOT</t>
+  </si>
+  <si>
+    <t>PMOT</t>
+  </si>
+  <si>
+    <t>IOR</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>ZD</t>
+  </si>
+  <si>
+    <t>icepap_ctrl_0</t>
+  </si>
+  <si>
+    <t>IcePAPCtrl.py</t>
+  </si>
+  <si>
+    <t>IcepapController</t>
+  </si>
+  <si>
+    <t>host:b108a-d100830-cab04-ctl-ipap-01; port:5000; connectionininit:False; timeout:3</t>
+  </si>
+  <si>
+    <t>hc:1.239873121E-6; iorgrx:ioregister/pgm_ioregister_ctrl/1</t>
+  </si>
+  <si>
+    <t>mono_m2pit; mono_gpit</t>
+  </si>
+  <si>
+    <t>hc:1.239873121E-6; iorgrx:None</t>
+  </si>
+  <si>
+    <t>mono_m2pit; pgm_grating_hcorr</t>
+  </si>
+  <si>
+    <t>EnergyFromIK220</t>
+  </si>
+  <si>
+    <t>diffrorder:1.0; hc:12398.41856; ik220_grpitch: pc/ik220_ctrl1/1;  ik220_mpitch:pc/ik220_ctrl2/1</t>
+  </si>
+  <si>
+    <t>species_energy_gap_follow_pseudo.py</t>
+  </si>
+  <si>
+    <t>EnergyGapFollowCtrl</t>
+  </si>
+  <si>
+    <t>lookup_table:/home/species-service/lookuptables/energygaplookup.txt</t>
+  </si>
+  <si>
+    <t>energy; dummy_epugap</t>
+  </si>
+  <si>
+    <t>species_heydecorrlookup.py</t>
+  </si>
+  <si>
+    <t>HeydemannCorrLookupCtrl</t>
+  </si>
+  <si>
+    <t>correction_table:/home/species-service/lookuptables/E380-420G_corr.txt; fine_value_device:pc/ik220_raw1/4</t>
+  </si>
+  <si>
+    <t>mono_gpit</t>
+  </si>
+  <si>
+    <t>m1_vc; m1_vl; m1_vr</t>
+  </si>
+  <si>
+    <t>m3_vc; m3_vl; m3_vr</t>
+  </si>
+  <si>
+    <t>a_m4_vc; a_m4_vl; a_m4_vr</t>
+  </si>
+  <si>
+    <t>b_m4_vc; b_m4_vl; b_m4_vr</t>
+  </si>
+  <si>
+    <t>mirror_nudge_pseudo.py</t>
+  </si>
+  <si>
+    <t>MirrorNudgePseudo</t>
+  </si>
+  <si>
+    <t>a_m4_hpit</t>
+  </si>
+  <si>
+    <t>energy; cff; a_slit1_v</t>
+  </si>
+  <si>
+    <t>energy; cff; b_slit1_v</t>
+  </si>
+  <si>
+    <t>OneDExpChannel</t>
+  </si>
+  <si>
+    <t>rixsaq_pgs_spectrum_ctrl</t>
+  </si>
+  <si>
+    <t>rixsaqspectrumctrl.py</t>
+  </si>
+  <si>
+    <t>RixsaqSpectrumCtrl</t>
+  </si>
+  <si>
+    <t>mono_baff_vt, mono_baff_vb</t>
+  </si>
+  <si>
+    <t>mono_baff_hl; mono_baff_hr</t>
+  </si>
+  <si>
+    <t>m3_baff_vt; m3_baff_vb</t>
+  </si>
+  <si>
+    <t>m3_baff_hr; m3_baff_hl</t>
+  </si>
+  <si>
+    <t>a_m4_baff_vt; a_m4_baff_vb</t>
+  </si>
+  <si>
+    <t>b_m4_baff_vt; b_m4_baff_vb</t>
+  </si>
+  <si>
+    <t>b_m4_baff_hl; b_m4_baff_hr</t>
+  </si>
+  <si>
+    <t>a_slit1_hdal; a_slit1_hdar</t>
+  </si>
+  <si>
+    <t>b_slit1_hdal; b_slit1_hdar</t>
+  </si>
+  <si>
+    <t>IORegister</t>
+  </si>
+  <si>
+    <t>DummyIORController.py</t>
+  </si>
+  <si>
+    <t>DummyIORController</t>
+  </si>
+  <si>
+    <t>DummyMotorController.py</t>
+  </si>
+  <si>
+    <t>DummyMotorController</t>
+  </si>
+  <si>
+    <t>DummyCounterTimerController.py</t>
+  </si>
+  <si>
+    <t>DummyCounterTimerController</t>
+  </si>
+  <si>
+    <t>albaemhost:b108a-o04-ctl-aem-01;port:5025</t>
+  </si>
+  <si>
+    <t>albaemhost:b108a-o04-ctl-aem-02;port:5025</t>
+  </si>
+  <si>
+    <t>motor/dummy_motor_ctrl/1</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>pm/energy_ctrl/1</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>FixedMirrorPit:true; offsetGrLE:0; offsetMLE:0</t>
+  </si>
+  <si>
+    <t>cff</t>
+  </si>
+  <si>
+    <t>pm/energy_ctrl/2</t>
+  </si>
+  <si>
+    <t>Cff</t>
+  </si>
+  <si>
+    <t>FixedMirrorPit:false</t>
+  </si>
+  <si>
+    <t>energy_hcorr</t>
+  </si>
+  <si>
+    <t>pm/energy_ctrl_hcorr/1</t>
+  </si>
+  <si>
+    <t>Hcorr Energy</t>
+  </si>
+  <si>
+    <t>cff_hcorr</t>
+  </si>
+  <si>
+    <t>pm/energy_ctrl_hcorr/2</t>
+  </si>
+  <si>
+    <t>Hcorr Cff</t>
+  </si>
+  <si>
+    <t>energyfollowgap</t>
+  </si>
+  <si>
+    <t>pm/energygapfollow_ctrl/1</t>
+  </si>
+  <si>
+    <t>EnergyFollowGap</t>
+  </si>
+  <si>
+    <t>GapOffset:0; Harmonic:3</t>
+  </si>
+  <si>
+    <t>pgm_grating_hcorr</t>
+  </si>
+  <si>
+    <t>pm/heyde_grating_ctrl/1</t>
+  </si>
+  <si>
+    <t>Hcorr Grating</t>
+  </si>
+  <si>
+    <t>m1_y</t>
+  </si>
+  <si>
+    <t>pm/m1_pseudo_ctrl/1</t>
+  </si>
+  <si>
+    <t>m1_yaw</t>
+  </si>
+  <si>
+    <t>pm/m1_pseudo_ctrl/2</t>
+  </si>
+  <si>
+    <t>m1_roll</t>
+  </si>
+  <si>
+    <t>pm/m1_pseudo_ctrl/3</t>
+  </si>
+  <si>
+    <t>m3_y</t>
+  </si>
+  <si>
+    <t>pm/m3_pseudo_ctrl/1</t>
+  </si>
+  <si>
+    <t>m3_yaw</t>
+  </si>
+  <si>
+    <t>pm/m3_pseudo_ctrl/2</t>
+  </si>
+  <si>
+    <t>m3_roll</t>
+  </si>
+  <si>
+    <t>pm/m3_pseudo_ctrl/3</t>
+  </si>
+  <si>
+    <t>m4h_pitch_nudge</t>
+  </si>
+  <si>
+    <t>pm/a_m4_nudge_ctrl/1</t>
+  </si>
+  <si>
+    <t>HPXPS M4 Pitch Nudge</t>
+  </si>
+  <si>
+    <t>Center:122.76</t>
+  </si>
+  <si>
+    <t>a_m4_y</t>
+  </si>
+  <si>
+    <t>pm/a_m4_pseudo_ctrl/1</t>
+  </si>
+  <si>
+    <t>a_m4_yaw</t>
+  </si>
+  <si>
+    <t>pm/a_m4_pseudo_ctrl/2</t>
+  </si>
+  <si>
+    <t>a_m4_roll</t>
+  </si>
+  <si>
+    <t>pm/a_m4_pseudo_ctrl/3</t>
+  </si>
+  <si>
+    <t>b_m4_y</t>
+  </si>
+  <si>
+    <t>pm/b_m4_pseudo_ctrl/1</t>
+  </si>
+  <si>
+    <t>b_m4_yaw</t>
+  </si>
+  <si>
+    <t>pm/b_m4_pseudo_ctrl/2</t>
+  </si>
+  <si>
+    <t>b_m4_roll</t>
+  </si>
+  <si>
+    <t>pm/b_m4_pseudo_ctrl/3</t>
+  </si>
+  <si>
+    <t>a_monores</t>
+  </si>
+  <si>
+    <t>pm/a_monorescal_ctrl/1</t>
+  </si>
+  <si>
+    <t>HPXPS Mono Res</t>
+  </si>
+  <si>
+    <t>b_monores</t>
+  </si>
+  <si>
+    <t>pm/b_monorescal_ctrl/1</t>
+  </si>
+  <si>
+    <t>RIXS Mono Res</t>
+  </si>
+  <si>
+    <t>mono_baff_v_gap</t>
+  </si>
+  <si>
+    <t>pm/mono_baff_h_ctrl/1</t>
+  </si>
+  <si>
+    <t>mono_baff_v_offset</t>
+  </si>
+  <si>
+    <t>pm/mono_baff_h_ctrl/2</t>
+  </si>
+  <si>
+    <t>mono_baff_h_gap</t>
+  </si>
+  <si>
+    <t>pm/mono_baff_v_ctrl/1</t>
+  </si>
+  <si>
+    <t>mono_baff_h_offset</t>
+  </si>
+  <si>
+    <t>pm/mono_baff_v_ctrl/2</t>
+  </si>
+  <si>
+    <t>m3_baff_v_gap</t>
+  </si>
+  <si>
+    <t>pm/m3_baff_h_ctrl/1</t>
+  </si>
+  <si>
+    <t>m3_baff_v_offset</t>
+  </si>
+  <si>
+    <t>pm/m3_baff_h_ctrl/2</t>
+  </si>
+  <si>
+    <t>m3_baff_h_gap</t>
+  </si>
+  <si>
+    <t>pm/m3_baff_v_ctrl/1</t>
+  </si>
+  <si>
+    <t>m3_baff_h_offset</t>
+  </si>
+  <si>
+    <t>pm/m3_baff_v_ctrl/2</t>
+  </si>
+  <si>
+    <t>a_m4_baff_v_gap</t>
+  </si>
+  <si>
+    <t>pm/a_m4_baff_h_ctrl/1</t>
+  </si>
+  <si>
+    <t>a_m4_baff_v_offset</t>
+  </si>
+  <si>
+    <t>pm/a_m4_baff_h_ctrl/2</t>
+  </si>
+  <si>
+    <t>a_m4_baff_h_gap</t>
+  </si>
+  <si>
+    <t>pm/a_m4_baff_v_ctrl/1</t>
+  </si>
+  <si>
+    <t>a_m4_baff_h_offset</t>
+  </si>
+  <si>
+    <t>pm/a_m4_baff_v_ctrl/2</t>
+  </si>
+  <si>
+    <t>b_m4_baff_v_gap</t>
+  </si>
+  <si>
+    <t>pm/b_m4_baff_h_ctrl/1</t>
+  </si>
+  <si>
+    <t>b_m4_baff_v_offset</t>
+  </si>
+  <si>
+    <t>pm/b_m4_baff_h_ctrl/2</t>
+  </si>
+  <si>
+    <t>b_m4_baff_h_gap</t>
+  </si>
+  <si>
+    <t>pm/b_m4_baff_v_ctrl/1</t>
+  </si>
+  <si>
+    <t>b_m4_baff_h_offset</t>
+  </si>
+  <si>
+    <t>pm/b_m4_baff_v_ctrl/2</t>
+  </si>
+  <si>
+    <t>a_slit1_h_gap</t>
+  </si>
+  <si>
+    <t>pm/a_slit1_v_ctrl/1</t>
+  </si>
+  <si>
+    <t>HPXPS Slit Size</t>
+  </si>
+  <si>
+    <t>a_slit1_h_offset</t>
+  </si>
+  <si>
+    <t>pm/a_slit1_v_ctrl/2</t>
+  </si>
+  <si>
+    <t>b_slit1_h_gap</t>
+  </si>
+  <si>
+    <t>pm/b_slit1_v_ctrl/1</t>
+  </si>
+  <si>
+    <t>RIXS Slit Size</t>
+  </si>
+  <si>
+    <t>b_slit1_h_offset</t>
+  </si>
+  <si>
+    <t>pm/b_slit1_v_ctrl/2</t>
+  </si>
+  <si>
+    <t>IOREgister</t>
+  </si>
+  <si>
+    <t>pgm_ior</t>
+  </si>
+  <si>
+    <t>ioregister/pgm_ioregister_ctrl/1</t>
+  </si>
+  <si>
+    <t>gr_1</t>
+  </si>
+  <si>
+    <t>gr_2</t>
+  </si>
+  <si>
+    <t>gr_3</t>
+  </si>
+  <si>
+    <t>gr_4</t>
+  </si>
+  <si>
+    <t>gr_mean</t>
+  </si>
+  <si>
+    <t>mirror_1</t>
+  </si>
+  <si>
+    <t>mirror_2</t>
+  </si>
+  <si>
+    <t>mirror_3</t>
+  </si>
+  <si>
+    <t>mirror_4</t>
+  </si>
+  <si>
+    <t>mirror_mean</t>
+  </si>
+  <si>
+    <t>energy_1</t>
+  </si>
+  <si>
+    <t>cff_1</t>
+  </si>
+  <si>
+    <t>ik220_1_1c</t>
+  </si>
+  <si>
+    <t>ik220_1_1f</t>
+  </si>
+  <si>
+    <t>ik220_1_2c</t>
+  </si>
+  <si>
+    <t>ik220_1_2f</t>
+  </si>
+  <si>
+    <t>ik220_1_3c</t>
+  </si>
+  <si>
+    <t>ik220_1_3f</t>
+  </si>
+  <si>
+    <t>ik220_1_4c</t>
+  </si>
+  <si>
+    <t>ik220_1_4f</t>
+  </si>
+  <si>
+    <t>Ik220_2_1c</t>
+  </si>
+  <si>
+    <t>Ik220_2_1f</t>
+  </si>
+  <si>
+    <t>Ik220_2_2c</t>
+  </si>
+  <si>
+    <t>Ik220_2_2f</t>
+  </si>
+  <si>
+    <t>Ik220_2_3c</t>
+  </si>
+  <si>
+    <t>Ik220_2_3f</t>
+  </si>
+  <si>
+    <t>Ik220_2_4c</t>
+  </si>
+  <si>
+    <t>Ik220_2_4f</t>
+  </si>
+  <si>
+    <t>aem_o04_02_timer</t>
+  </si>
+  <si>
+    <t>B108A-O04/CTL/AEM-02-TIMER</t>
+  </si>
+  <si>
+    <t>aem_o04_02_ch1</t>
+  </si>
+  <si>
+    <t>B108A-O04/CTL/AEM-02-CH1</t>
+  </si>
+  <si>
+    <t>aem_o04_02_ch2</t>
+  </si>
+  <si>
+    <t>B108A-O04/CTL/AEM-02-CH2</t>
+  </si>
+  <si>
+    <t>aem_o04_02_ch3</t>
+  </si>
+  <si>
+    <t>B108A-O04/CTL/AEM-02-CH3</t>
+  </si>
+  <si>
+    <t>aem_o04_02_ch4</t>
+  </si>
+  <si>
+    <t>B108A-O04/CTL/AEM-02-CH4</t>
+  </si>
+  <si>
+    <t>MeasurementGroup</t>
+  </si>
+  <si>
+    <t>mg01</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Min Value</t>
+  </si>
+  <si>
+    <t>Min Alarm</t>
+  </si>
+  <si>
+    <t>Min Warning</t>
+  </si>
+  <si>
+    <t>Max Warning</t>
+  </si>
+  <si>
+    <t>Max Alarm</t>
+  </si>
+  <si>
+    <t>Max Value</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Polling Period</t>
+  </si>
+  <si>
+    <t>Change Event</t>
+  </si>
+  <si>
+    <t>/FE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt formatCode="0.0000" numFmtId="100"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="14">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <u val="none"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Sans"/>
-      <vertAlign val="baseline"/>
-      <sz val="10"/>
-      <strike val="0"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <u val="none"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <vertAlign val="baseline"/>
-      <sz val="8"/>
-      <strike val="0"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <u val="none"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <vertAlign val="baseline"/>
-      <sz val="11"/>
-      <strike val="0"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
-      <u val="none"/>
+      <b/>
+      <i/>
+      <sz val="7.5"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <vertAlign val="baseline"/>
-      <sz val="7.5"/>
-      <strike val="0"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <u val="none"/>
+      <sz val="7.5"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <vertAlign val="baseline"/>
-      <sz val="7.5"/>
-      <strike val="0"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
-      <u val="none"/>
+      <b/>
+      <i/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <vertAlign val="baseline"/>
-      <sz val="8"/>
-      <strike val="0"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <u val="none"/>
+      <sz val="6.4"/>
       <color rgb="FF2E3436"/>
       <name val="Cantarell"/>
-      <vertAlign val="baseline"/>
-      <sz val="6.4"/>
-      <strike val="0"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <u val="none"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <vertAlign val="baseline"/>
-      <sz val="10"/>
-      <strike val="0"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
-      <u val="none"/>
+      <b/>
+      <i/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <vertAlign val="baseline"/>
-      <sz val="10"/>
-      <strike val="0"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <u val="none"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <vertAlign val="baseline"/>
-      <sz val="8"/>
-      <strike val="0"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <u val="none"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <vertAlign val="baseline"/>
-      <sz val="10"/>
-      <strike val="0"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
-      <u val="none"/>
+      <b/>
+      <i/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="ARial"/>
-      <vertAlign val="baseline"/>
-      <sz val="10"/>
-      <strike val="0"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <u val="none"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="ARial"/>
-      <vertAlign val="baseline"/>
-      <sz val="8"/>
-      <strike val="0"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
-      <u val="none"/>
+      <b/>
+      <i/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="ARial"/>
-      <vertAlign val="baseline"/>
-      <sz val="8"/>
-      <strike val="0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -553,21 +1203,14 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="0" diagonalDown="0">
-      <left style="none">
-        <color rgb="FFC7C7C7"/>
-      </left>
-      <right style="none">
-        <color rgb="FFC7C7C7"/>
-      </right>
-      <top style="none">
-        <color rgb="FFC7C7C7"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalUp="0" diagonalDown="0">
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -580,211 +1223,440 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
-    <border diagonalUp="0" diagonalDown="0">
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="none">
-        <color rgb="FFC7C7C7"/>
-      </right>
-      <top style="none">
-        <color rgb="FFC7C7C7"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalUp="0" diagonalDown="0">
-      <left style="none">
-        <color rgb="FFC7C7C7"/>
-      </left>
-      <right style="none">
-        <color rgb="FFC7C7C7"/>
-      </right>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="6" fillId="2" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="9" fillId="4" borderId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="11" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="12" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="13" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="12" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="11" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="11" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="7" fillId="0" borderId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="11" fillId="0" borderId="0" numFmtId="100" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="11" fillId="0" borderId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="11" fillId="0" borderId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="10" fillId="0" borderId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="13" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:AMK5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="110">
+    <sheetView zoomScale="366" zoomScaleNormal="366" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.83" customWidth="1"/>
-    <col min="2" max="2" style="1" width="25.67" customWidth="1"/>
-    <col min="3" max="256" style="1" width="10.99" customWidth="1"/>
-    <col min="257" max="1025" style="2" width="10.99" customWidth="1"/>
-    <col min="1026" max="16384" style="2" width="9.142307692307693"/>
+    <col min="1" max="1" width="9.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.59765625" style="1" customWidth="1"/>
+    <col min="3" max="256" width="11" style="1" customWidth="1"/>
+    <col min="257" max="1025" width="11" style="2" customWidth="1"/>
+    <col min="1026" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" customHeight="1" ht="11.25">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>B108A</t>
-        </is>
+    <row r="1" spans="1:2" ht="11.25" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:1025" customHeight="1" ht="11.25">
+    <row r="2" spans="1:2" ht="11.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>SPECIES</t>
-        </is>
+      <c r="B2" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:1025" customHeight="1" ht="11.25">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Pool for the SPECIES beamline</t>
-        </is>
+    <row r="3" spans="1:2" ht="11.25" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:1025" customHeight="1" ht="12.75">
+    <row r="4" spans="1:2" ht="12.75" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:1025" customHeight="1" ht="12.75">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>prefix</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>p1</t>
-        </is>
+    <row r="5" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;CArial,Regular"0&amp;A</oddHeader>
     <oddFooter>&amp;CArial,Regular"0Page &amp;P</oddFooter>
@@ -793,44 +1665,40 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:AMK28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:AMK3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="110">
+    <sheetView zoomScale="110" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="12" width="19" customWidth="1"/>
-    <col min="2" max="2" style="12" width="14.5" customWidth="1"/>
-    <col min="3" max="3" style="12" width="15.49" customWidth="1"/>
-    <col min="4" max="4" style="12" width="14.66" customWidth="1"/>
-    <col min="5" max="5" style="12" width="56.82999999999999" customWidth="1"/>
-    <col min="6" max="6" style="12" width="10.5" customWidth="1"/>
-    <col min="7" max="7" style="8" width="4.5" customWidth="1"/>
-    <col min="8" max="8" style="8" width="4.33" customWidth="1"/>
-    <col min="9" max="9" style="8" width="3.8300000000000005" customWidth="1"/>
-    <col min="10" max="10" style="8" width="3.5" customWidth="1"/>
-    <col min="11" max="11" style="8" width="3.64" customWidth="1"/>
-    <col min="12" max="12" style="8" width="4.5" customWidth="1"/>
-    <col min="13" max="13" style="8" width="3.98" customWidth="1"/>
-    <col min="14" max="14" style="8" width="3.16" customWidth="1"/>
-    <col min="15" max="15" style="8" width="2.99" customWidth="1"/>
-    <col min="16" max="16" style="8" width="3.98" customWidth="1"/>
-    <col min="17" max="17" style="8" width="3.64" customWidth="1"/>
-    <col min="18" max="18" style="8" width="3.8300000000000005" customWidth="1"/>
-    <col min="19" max="19" style="8" width="3.64" customWidth="1"/>
-    <col min="20" max="20" style="8" width="2.5" customWidth="1"/>
-    <col min="21" max="256" style="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="257" max="1025" style="16" width="10.99" customWidth="1"/>
-    <col min="1026" max="16384" style="2" width="9.142307692307693"/>
+    <col min="1" max="1" width="19" style="12" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="56.796875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" style="12" customWidth="1"/>
+    <col min="7" max="8" width="4.3984375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="3.796875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="3.3984375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="3.59765625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="4.3984375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="4" style="8" customWidth="1"/>
+    <col min="14" max="14" width="3.19921875" style="8" customWidth="1"/>
+    <col min="15" max="15" width="3" style="8" customWidth="1"/>
+    <col min="16" max="16" width="4" style="8" customWidth="1"/>
+    <col min="17" max="17" width="3.59765625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="3.796875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="3.59765625" style="8" customWidth="1"/>
+    <col min="20" max="20" width="2.3984375" style="8" customWidth="1"/>
+    <col min="21" max="256" width="11.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="257" max="1025" width="11" style="16" customWidth="1"/>
+    <col min="1026" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" customHeight="1" ht="13">
+    <row r="1" spans="1:256" ht="13" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -1100,20 +1968,16 @@
       <c r="IU1" s="23"/>
       <c r="IV1" s="23"/>
     </row>
-    <row r="2" spans="1:1025" customHeight="1" ht="14">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>MeasurementGroup</t>
-        </is>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:256" ht="14" customHeight="1">
+      <c r="A2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
-      </c>
-      <c r="C2" s="16" t="inlineStr">
-        <is>
-          <t>mg01</t>
-        </is>
+        <v>B108A/Pool/01</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>313</v>
       </c>
       <c r="D2" t="s">
         <v>79</v>
@@ -1122,37 +1986,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:1025" customHeight="1" ht="11.25"/>
-    <row r="4" spans="1:1025" ht="12.8"/>
-    <row r="5" spans="1:1025" ht="12.8"/>
-    <row r="6" spans="1:1025" ht="12.8"/>
-    <row r="7" spans="1:1025" ht="12.8"/>
-    <row r="8" spans="1:1025" ht="12.8"/>
-    <row r="9" spans="1:1025" ht="12.8"/>
-    <row r="10" spans="1:1025" ht="12.8"/>
-    <row r="11" spans="1:1025" ht="12.8"/>
-    <row r="12" spans="1:1025" ht="12.8"/>
-    <row r="13" spans="1:1025" ht="12.8"/>
-    <row r="14" spans="1:1025" ht="12.8"/>
-    <row r="15" spans="1:1025" ht="12.8"/>
-    <row r="16" spans="1:1025" ht="12.8"/>
-    <row r="17" spans="1:1025" ht="12.8"/>
-    <row r="18" spans="1:1025" ht="12.8"/>
-    <row r="19" spans="1:1025" ht="12.8"/>
-    <row r="20" spans="1:1025" ht="12.8"/>
-    <row r="21" spans="1:1025" ht="12.8"/>
-    <row r="22" spans="1:1025" ht="12.8"/>
-    <row r="23" spans="1:1025" ht="12.8"/>
-    <row r="24" spans="1:1025" ht="12.8"/>
-    <row r="25" spans="1:1025" ht="12.8"/>
-    <row r="26" spans="1:1025" ht="12.8"/>
-    <row r="27" spans="1:1025" ht="12.8"/>
-    <row r="28" spans="1:1025" ht="12.8"/>
+    <row r="3" spans="1:256" ht="11.25" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;CArial,Regular"0&amp;A</oddHeader>
     <oddFooter>&amp;CArial,Regular"0Page &amp;P</oddFooter>
@@ -1161,99 +1999,70 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:XFD65533"/>
   <sheetViews>
-    <sheetView topLeftCell="W95" workbookViewId="0" zoomScale="110">
+    <sheetView topLeftCell="W95" zoomScale="110" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="24" width="11.99" customWidth="1"/>
-    <col min="2" max="2" style="12" width="11.33" customWidth="1"/>
-    <col min="3" max="3" style="12" width="11.64" customWidth="1"/>
-    <col min="4" max="4" style="12" width="6.01" customWidth="1"/>
-    <col min="5" max="12" style="12" width="10.5" customWidth="1"/>
-    <col min="13" max="13" style="12" width="13.02" customWidth="1"/>
-    <col min="14" max="14" style="12" width="11.64" customWidth="1"/>
-    <col min="15" max="15" style="12" width="21.83" customWidth="1"/>
-    <col min="16" max="256" style="12" width="10.99" customWidth="1"/>
-    <col min="257" max="1025" style="16" width="10.99" customWidth="1"/>
-    <col min="1026" max="16384" style="2" width="9.142307692307693"/>
+    <col min="1" max="1" width="12" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="6" style="12" customWidth="1"/>
+    <col min="5" max="12" width="10.3984375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="13" style="12" customWidth="1"/>
+    <col min="14" max="14" width="11.59765625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="21.796875" style="12" customWidth="1"/>
+    <col min="16" max="256" width="11" style="12" customWidth="1"/>
+    <col min="257" max="1025" width="11" style="16" customWidth="1"/>
+    <col min="1026" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" customHeight="1" ht="10.5">
+    <row r="1" spans="1:16384" ht="10.5" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="18" t="inlineStr">
-        <is>
-          <t>Element</t>
-        </is>
-      </c>
-      <c r="C1" s="18" t="inlineStr">
-        <is>
-          <t>Parameter</t>
-        </is>
-      </c>
-      <c r="D1" s="18" t="inlineStr">
-        <is>
-          <t>Label</t>
-        </is>
-      </c>
-      <c r="E1" s="25" t="inlineStr">
-        <is>
-          <t>Format</t>
-        </is>
-      </c>
-      <c r="F1" s="25" t="inlineStr">
-        <is>
-          <t>Min Value</t>
-        </is>
-      </c>
-      <c r="G1" s="25" t="inlineStr">
-        <is>
-          <t>Min Alarm</t>
-        </is>
-      </c>
-      <c r="H1" s="25" t="inlineStr">
-        <is>
-          <t>Min Warning</t>
-        </is>
-      </c>
-      <c r="I1" s="25" t="inlineStr">
-        <is>
-          <t>Max Warning</t>
-        </is>
-      </c>
-      <c r="J1" s="25" t="inlineStr">
-        <is>
-          <t>Max Alarm</t>
-        </is>
-      </c>
-      <c r="K1" s="25" t="inlineStr">
-        <is>
-          <t>Max Value</t>
-        </is>
-      </c>
-      <c r="L1" s="18" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="M1" s="18" t="inlineStr">
-        <is>
-          <t>Polling Period</t>
-        </is>
-      </c>
-      <c r="N1" s="26" t="inlineStr">
-        <is>
-          <t>Change Event</t>
-        </is>
+      <c r="B1" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>326</v>
       </c>
       <c r="O1" s="18" t="s">
         <v>3</v>
@@ -17628,328 +18437,266 @@
       <c r="XFC1" s="28"/>
       <c r="XFD1" s="28"/>
     </row>
-    <row r="2" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="3" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="4" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="5" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="6" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="7" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="8" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="9" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="10" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="11" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="12" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="13" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="14" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="15" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="16" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="17" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="18" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="19" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="20" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="21" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="22" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="23" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="24" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="25" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="26" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="27" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="28" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="29" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="30" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="31" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="32" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="33" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="34" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="35" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="36" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="37" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="38" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="39" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="40" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="41" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="42" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="43" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="44" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="45" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="46" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="47" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="48" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="49" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="50" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="51" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="52" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="53" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="54" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="55" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="56" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="57" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="58" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="59" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="60" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="61" spans="1:16384" customHeight="1" ht="12"/>
-    <row r="62" spans="1:16384" ht="12.8"/>
-    <row r="63" spans="1:16384" ht="12.8"/>
-    <row r="64" spans="1:16384" ht="12.8"/>
-    <row r="65" spans="1:16384" ht="12.8"/>
-    <row r="66" spans="1:16384" ht="12.8"/>
-    <row r="67" spans="1:16384" ht="12.8"/>
-    <row r="68" spans="1:16384" ht="12.8"/>
-    <row r="69" spans="1:16384" ht="12.8"/>
-    <row r="70" spans="1:16384" ht="12.8"/>
-    <row r="71" spans="1:16384" ht="12.8"/>
-    <row r="72" spans="1:16384" ht="12.8"/>
-    <row r="73" spans="1:16384" ht="12.8"/>
-    <row r="74" spans="1:16384" ht="12.8"/>
-    <row r="75" spans="1:16384" ht="12.8"/>
-    <row r="76" spans="1:16384" ht="12.8"/>
-    <row r="77" spans="1:16384" ht="12.8"/>
-    <row r="78" spans="1:16384" ht="12.8"/>
-    <row r="79" spans="1:16384" ht="12.8"/>
-    <row r="80" spans="1:16384" ht="12.8"/>
-    <row r="81" spans="1:16384" ht="12.8"/>
-    <row r="82" spans="1:16384" ht="12.8"/>
-    <row r="83" spans="1:16384" ht="12.8"/>
-    <row r="84" spans="1:16384" ht="12.8"/>
-    <row r="85" spans="1:16384" ht="12.8"/>
-    <row r="86" spans="1:16384" ht="12.8"/>
-    <row r="87" spans="1:16384" ht="12.8"/>
-    <row r="88" spans="1:16384" ht="12.8"/>
-    <row r="89" spans="1:16384" ht="12.8"/>
-    <row r="90" spans="1:16384" ht="12.8"/>
-    <row r="91" spans="1:16384" ht="12.8"/>
-    <row r="92" spans="1:16384" ht="12.8"/>
-    <row r="93" spans="1:16384" ht="12.8"/>
-    <row r="94" spans="1:16384" ht="12.8"/>
-    <row r="95" spans="1:16384" ht="12.8"/>
-    <row r="96" spans="1:16384" ht="12.8"/>
-    <row r="97" spans="1:16384" ht="12.8"/>
-    <row r="98" spans="1:16384" ht="12.8"/>
-    <row r="99" spans="1:16384" ht="12.8"/>
-    <row r="100" spans="1:16384" ht="12.8"/>
-    <row r="101" spans="1:16384" ht="12.8"/>
-    <row r="102" spans="1:16384" ht="12.8"/>
-    <row r="103" spans="1:16384" ht="12.8"/>
-    <row r="104" spans="1:16384" ht="12.8"/>
-    <row r="105" spans="1:16384" ht="12.8"/>
-    <row r="106" spans="1:16384" ht="12.8"/>
-    <row r="107" spans="1:16384" ht="12.8"/>
-    <row r="108" spans="1:16384" ht="12.8"/>
-    <row r="109" spans="1:16384" ht="12.8"/>
-    <row r="110" spans="1:16384" ht="12.8"/>
-    <row r="111" spans="1:16384" ht="12.8"/>
-    <row r="112" spans="1:16384" ht="12.8"/>
-    <row r="113" spans="1:16384" ht="12.8"/>
-    <row r="114" spans="1:16384" ht="12.8"/>
-    <row r="115" spans="1:16384" ht="12.8"/>
-    <row r="116" spans="1:16384" ht="12.8"/>
-    <row r="117" spans="1:16384" ht="12.8"/>
-    <row r="118" spans="1:16384" ht="12.8"/>
-    <row r="119" spans="1:16384" ht="12.8"/>
-    <row r="120" spans="1:16384" ht="12.8"/>
-    <row r="121" spans="1:16384" ht="12.8"/>
-    <row r="122" spans="1:16384" ht="12.8"/>
-    <row r="65338" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65339" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65340" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65341" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65342" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65343" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65344" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65345" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65346" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65347" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65348" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65349" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65350" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65351" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65352" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65353" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65354" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65355" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65356" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65357" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65358" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65359" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65360" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65361" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65362" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65363" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65364" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65365" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65366" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65367" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65368" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65369" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65370" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65371" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65372" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65373" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65374" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65375" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65376" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65377" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65378" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65379" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65380" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65381" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65382" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65383" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65384" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65385" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65386" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65387" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65388" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65389" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65390" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65391" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65392" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65393" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65394" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65395" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65396" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65397" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65398" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65399" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65400" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65401" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65402" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65403" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65404" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65405" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65406" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65407" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65408" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65409" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65410" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65411" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65412" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65413" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65414" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65415" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65416" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65417" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65418" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65419" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65420" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65421" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65422" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65423" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65424" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65425" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65426" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65427" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65428" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65429" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65430" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65431" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65432" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65433" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65434" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65435" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65436" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65437" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65438" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65439" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65440" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65441" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65442" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65443" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65444" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65445" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65446" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65447" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65448" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65449" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65450" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65451" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65452" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65453" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65454" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65455" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65456" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65457" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65458" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65459" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65460" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65461" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65462" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65463" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65464" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65465" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65466" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65467" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65468" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65469" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65470" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65471" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65472" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65473" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65474" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65475" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65476" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65477" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65478" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65479" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65480" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65481" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65482" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65483" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65484" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65485" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65486" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65487" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65488" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65489" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65490" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65491" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65492" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65493" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65494" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65495" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65496" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65497" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65498" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65499" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65500" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65501" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65502" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65503" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65504" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65505" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65506" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65507" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65508" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65509" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65510" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65511" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65512" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65513" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65514" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65515" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65516" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65517" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65518" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65519" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65520" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65521" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65522" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65523" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65524" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65525" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65526" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65527" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65528" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65529" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65530" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65531" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65532" spans="1:16384" customHeight="1" ht="12.75"/>
-    <row r="65533" spans="1:16384" customHeight="1" ht="12.75"/>
+    <row r="2" spans="1:16384" ht="12" customHeight="1"/>
+    <row r="3" spans="1:16384" ht="12" customHeight="1"/>
+    <row r="4" spans="1:16384" ht="12" customHeight="1"/>
+    <row r="5" spans="1:16384" ht="12" customHeight="1"/>
+    <row r="6" spans="1:16384" ht="12" customHeight="1"/>
+    <row r="7" spans="1:16384" ht="12" customHeight="1"/>
+    <row r="8" spans="1:16384" ht="12" customHeight="1"/>
+    <row r="9" spans="1:16384" ht="12" customHeight="1"/>
+    <row r="10" spans="1:16384" ht="12" customHeight="1"/>
+    <row r="11" spans="1:16384" ht="12" customHeight="1"/>
+    <row r="12" spans="1:16384" ht="12" customHeight="1"/>
+    <row r="13" spans="1:16384" ht="12" customHeight="1"/>
+    <row r="14" spans="1:16384" ht="12" customHeight="1"/>
+    <row r="15" spans="1:16384" ht="12" customHeight="1"/>
+    <row r="16" spans="1:16384" ht="12" customHeight="1"/>
+    <row r="17" ht="12" customHeight="1"/>
+    <row r="18" ht="12" customHeight="1"/>
+    <row r="19" ht="12" customHeight="1"/>
+    <row r="20" ht="12" customHeight="1"/>
+    <row r="21" ht="12" customHeight="1"/>
+    <row r="22" ht="12" customHeight="1"/>
+    <row r="23" ht="12" customHeight="1"/>
+    <row r="24" ht="12" customHeight="1"/>
+    <row r="25" ht="12" customHeight="1"/>
+    <row r="26" ht="12" customHeight="1"/>
+    <row r="27" ht="12" customHeight="1"/>
+    <row r="28" ht="12" customHeight="1"/>
+    <row r="29" ht="12" customHeight="1"/>
+    <row r="30" ht="12" customHeight="1"/>
+    <row r="31" ht="12" customHeight="1"/>
+    <row r="32" ht="12" customHeight="1"/>
+    <row r="33" ht="12" customHeight="1"/>
+    <row r="34" ht="12" customHeight="1"/>
+    <row r="35" ht="12" customHeight="1"/>
+    <row r="36" ht="12" customHeight="1"/>
+    <row r="37" ht="12" customHeight="1"/>
+    <row r="38" ht="12" customHeight="1"/>
+    <row r="39" ht="12" customHeight="1"/>
+    <row r="40" ht="12" customHeight="1"/>
+    <row r="41" ht="12" customHeight="1"/>
+    <row r="42" ht="12" customHeight="1"/>
+    <row r="43" ht="12" customHeight="1"/>
+    <row r="44" ht="12" customHeight="1"/>
+    <row r="45" ht="12" customHeight="1"/>
+    <row r="46" ht="12" customHeight="1"/>
+    <row r="47" ht="12" customHeight="1"/>
+    <row r="48" ht="12" customHeight="1"/>
+    <row r="49" ht="12" customHeight="1"/>
+    <row r="50" ht="12" customHeight="1"/>
+    <row r="51" ht="12" customHeight="1"/>
+    <row r="52" ht="12" customHeight="1"/>
+    <row r="53" ht="12" customHeight="1"/>
+    <row r="54" ht="12" customHeight="1"/>
+    <row r="55" ht="12" customHeight="1"/>
+    <row r="56" ht="12" customHeight="1"/>
+    <row r="57" ht="12" customHeight="1"/>
+    <row r="58" ht="12" customHeight="1"/>
+    <row r="59" ht="12" customHeight="1"/>
+    <row r="60" ht="12" customHeight="1"/>
+    <row r="61" ht="12" customHeight="1"/>
+    <row r="65338" ht="12.75" customHeight="1"/>
+    <row r="65339" ht="12.75" customHeight="1"/>
+    <row r="65340" ht="12.75" customHeight="1"/>
+    <row r="65341" ht="12.75" customHeight="1"/>
+    <row r="65342" ht="12.75" customHeight="1"/>
+    <row r="65343" ht="12.75" customHeight="1"/>
+    <row r="65344" ht="12.75" customHeight="1"/>
+    <row r="65345" ht="12.75" customHeight="1"/>
+    <row r="65346" ht="12.75" customHeight="1"/>
+    <row r="65347" ht="12.75" customHeight="1"/>
+    <row r="65348" ht="12.75" customHeight="1"/>
+    <row r="65349" ht="12.75" customHeight="1"/>
+    <row r="65350" ht="12.75" customHeight="1"/>
+    <row r="65351" ht="12.75" customHeight="1"/>
+    <row r="65352" ht="12.75" customHeight="1"/>
+    <row r="65353" ht="12.75" customHeight="1"/>
+    <row r="65354" ht="12.75" customHeight="1"/>
+    <row r="65355" ht="12.75" customHeight="1"/>
+    <row r="65356" ht="12.75" customHeight="1"/>
+    <row r="65357" ht="12.75" customHeight="1"/>
+    <row r="65358" ht="12.75" customHeight="1"/>
+    <row r="65359" ht="12.75" customHeight="1"/>
+    <row r="65360" ht="12.75" customHeight="1"/>
+    <row r="65361" ht="12.75" customHeight="1"/>
+    <row r="65362" ht="12.75" customHeight="1"/>
+    <row r="65363" ht="12.75" customHeight="1"/>
+    <row r="65364" ht="12.75" customHeight="1"/>
+    <row r="65365" ht="12.75" customHeight="1"/>
+    <row r="65366" ht="12.75" customHeight="1"/>
+    <row r="65367" ht="12.75" customHeight="1"/>
+    <row r="65368" ht="12.75" customHeight="1"/>
+    <row r="65369" ht="12.75" customHeight="1"/>
+    <row r="65370" ht="12.75" customHeight="1"/>
+    <row r="65371" ht="12.75" customHeight="1"/>
+    <row r="65372" ht="12.75" customHeight="1"/>
+    <row r="65373" ht="12.75" customHeight="1"/>
+    <row r="65374" ht="12.75" customHeight="1"/>
+    <row r="65375" ht="12.75" customHeight="1"/>
+    <row r="65376" ht="12.75" customHeight="1"/>
+    <row r="65377" ht="12.75" customHeight="1"/>
+    <row r="65378" ht="12.75" customHeight="1"/>
+    <row r="65379" ht="12.75" customHeight="1"/>
+    <row r="65380" ht="12.75" customHeight="1"/>
+    <row r="65381" ht="12.75" customHeight="1"/>
+    <row r="65382" ht="12.75" customHeight="1"/>
+    <row r="65383" ht="12.75" customHeight="1"/>
+    <row r="65384" ht="12.75" customHeight="1"/>
+    <row r="65385" ht="12.75" customHeight="1"/>
+    <row r="65386" ht="12.75" customHeight="1"/>
+    <row r="65387" ht="12.75" customHeight="1"/>
+    <row r="65388" ht="12.75" customHeight="1"/>
+    <row r="65389" ht="12.75" customHeight="1"/>
+    <row r="65390" ht="12.75" customHeight="1"/>
+    <row r="65391" ht="12.75" customHeight="1"/>
+    <row r="65392" ht="12.75" customHeight="1"/>
+    <row r="65393" ht="12.75" customHeight="1"/>
+    <row r="65394" ht="12.75" customHeight="1"/>
+    <row r="65395" ht="12.75" customHeight="1"/>
+    <row r="65396" ht="12.75" customHeight="1"/>
+    <row r="65397" ht="12.75" customHeight="1"/>
+    <row r="65398" ht="12.75" customHeight="1"/>
+    <row r="65399" ht="12.75" customHeight="1"/>
+    <row r="65400" ht="12.75" customHeight="1"/>
+    <row r="65401" ht="12.75" customHeight="1"/>
+    <row r="65402" ht="12.75" customHeight="1"/>
+    <row r="65403" ht="12.75" customHeight="1"/>
+    <row r="65404" ht="12.75" customHeight="1"/>
+    <row r="65405" ht="12.75" customHeight="1"/>
+    <row r="65406" ht="12.75" customHeight="1"/>
+    <row r="65407" ht="12.75" customHeight="1"/>
+    <row r="65408" ht="12.75" customHeight="1"/>
+    <row r="65409" ht="12.75" customHeight="1"/>
+    <row r="65410" ht="12.75" customHeight="1"/>
+    <row r="65411" ht="12.75" customHeight="1"/>
+    <row r="65412" ht="12.75" customHeight="1"/>
+    <row r="65413" ht="12.75" customHeight="1"/>
+    <row r="65414" ht="12.75" customHeight="1"/>
+    <row r="65415" ht="12.75" customHeight="1"/>
+    <row r="65416" ht="12.75" customHeight="1"/>
+    <row r="65417" ht="12.75" customHeight="1"/>
+    <row r="65418" ht="12.75" customHeight="1"/>
+    <row r="65419" ht="12.75" customHeight="1"/>
+    <row r="65420" ht="12.75" customHeight="1"/>
+    <row r="65421" ht="12.75" customHeight="1"/>
+    <row r="65422" ht="12.75" customHeight="1"/>
+    <row r="65423" ht="12.75" customHeight="1"/>
+    <row r="65424" ht="12.75" customHeight="1"/>
+    <row r="65425" ht="12.75" customHeight="1"/>
+    <row r="65426" ht="12.75" customHeight="1"/>
+    <row r="65427" ht="12.75" customHeight="1"/>
+    <row r="65428" ht="12.75" customHeight="1"/>
+    <row r="65429" ht="12.75" customHeight="1"/>
+    <row r="65430" ht="12.75" customHeight="1"/>
+    <row r="65431" ht="12.75" customHeight="1"/>
+    <row r="65432" ht="12.75" customHeight="1"/>
+    <row r="65433" ht="12.75" customHeight="1"/>
+    <row r="65434" ht="12.75" customHeight="1"/>
+    <row r="65435" ht="12.75" customHeight="1"/>
+    <row r="65436" ht="12.75" customHeight="1"/>
+    <row r="65437" ht="12.75" customHeight="1"/>
+    <row r="65438" ht="12.75" customHeight="1"/>
+    <row r="65439" ht="12.75" customHeight="1"/>
+    <row r="65440" ht="12.75" customHeight="1"/>
+    <row r="65441" ht="12.75" customHeight="1"/>
+    <row r="65442" ht="12.75" customHeight="1"/>
+    <row r="65443" ht="12.75" customHeight="1"/>
+    <row r="65444" ht="12.75" customHeight="1"/>
+    <row r="65445" ht="12.75" customHeight="1"/>
+    <row r="65446" ht="12.75" customHeight="1"/>
+    <row r="65447" ht="12.75" customHeight="1"/>
+    <row r="65448" ht="12.75" customHeight="1"/>
+    <row r="65449" ht="12.75" customHeight="1"/>
+    <row r="65450" ht="12.75" customHeight="1"/>
+    <row r="65451" ht="12.75" customHeight="1"/>
+    <row r="65452" ht="12.75" customHeight="1"/>
+    <row r="65453" ht="12.75" customHeight="1"/>
+    <row r="65454" ht="12.75" customHeight="1"/>
+    <row r="65455" ht="12.75" customHeight="1"/>
+    <row r="65456" ht="12.75" customHeight="1"/>
+    <row r="65457" ht="12.75" customHeight="1"/>
+    <row r="65458" ht="12.75" customHeight="1"/>
+    <row r="65459" ht="12.75" customHeight="1"/>
+    <row r="65460" ht="12.75" customHeight="1"/>
+    <row r="65461" ht="12.75" customHeight="1"/>
+    <row r="65462" ht="12.75" customHeight="1"/>
+    <row r="65463" ht="12.75" customHeight="1"/>
+    <row r="65464" ht="12.75" customHeight="1"/>
+    <row r="65465" ht="12.75" customHeight="1"/>
+    <row r="65466" ht="12.75" customHeight="1"/>
+    <row r="65467" ht="12.75" customHeight="1"/>
+    <row r="65468" ht="12.75" customHeight="1"/>
+    <row r="65469" ht="12.75" customHeight="1"/>
+    <row r="65470" ht="12.75" customHeight="1"/>
+    <row r="65471" ht="12.75" customHeight="1"/>
+    <row r="65472" ht="12.75" customHeight="1"/>
+    <row r="65473" ht="12.75" customHeight="1"/>
+    <row r="65474" ht="12.75" customHeight="1"/>
+    <row r="65475" ht="12.75" customHeight="1"/>
+    <row r="65476" ht="12.75" customHeight="1"/>
+    <row r="65477" ht="12.75" customHeight="1"/>
+    <row r="65478" ht="12.75" customHeight="1"/>
+    <row r="65479" ht="12.75" customHeight="1"/>
+    <row r="65480" ht="12.75" customHeight="1"/>
+    <row r="65481" ht="12.75" customHeight="1"/>
+    <row r="65482" ht="12.75" customHeight="1"/>
+    <row r="65483" ht="12.75" customHeight="1"/>
+    <row r="65484" ht="12.75" customHeight="1"/>
+    <row r="65485" ht="12.75" customHeight="1"/>
+    <row r="65486" ht="12.75" customHeight="1"/>
+    <row r="65487" ht="12.75" customHeight="1"/>
+    <row r="65488" ht="12.75" customHeight="1"/>
+    <row r="65489" ht="12.75" customHeight="1"/>
+    <row r="65490" ht="12.75" customHeight="1"/>
+    <row r="65491" ht="12.75" customHeight="1"/>
+    <row r="65492" ht="12.75" customHeight="1"/>
+    <row r="65493" ht="12.75" customHeight="1"/>
+    <row r="65494" ht="12.75" customHeight="1"/>
+    <row r="65495" ht="12.75" customHeight="1"/>
+    <row r="65496" ht="12.75" customHeight="1"/>
+    <row r="65497" ht="12.75" customHeight="1"/>
+    <row r="65498" ht="12.75" customHeight="1"/>
+    <row r="65499" ht="12.75" customHeight="1"/>
+    <row r="65500" ht="12.75" customHeight="1"/>
+    <row r="65501" ht="12.75" customHeight="1"/>
+    <row r="65502" ht="12.75" customHeight="1"/>
+    <row r="65503" ht="12.75" customHeight="1"/>
+    <row r="65504" ht="12.75" customHeight="1"/>
+    <row r="65505" ht="12.75" customHeight="1"/>
+    <row r="65506" ht="12.75" customHeight="1"/>
+    <row r="65507" ht="12.75" customHeight="1"/>
+    <row r="65508" ht="12.75" customHeight="1"/>
+    <row r="65509" ht="12.75" customHeight="1"/>
+    <row r="65510" ht="12.75" customHeight="1"/>
+    <row r="65511" ht="12.75" customHeight="1"/>
+    <row r="65512" ht="12.75" customHeight="1"/>
+    <row r="65513" ht="12.75" customHeight="1"/>
+    <row r="65514" ht="12.75" customHeight="1"/>
+    <row r="65515" ht="12.75" customHeight="1"/>
+    <row r="65516" ht="12.75" customHeight="1"/>
+    <row r="65517" ht="12.75" customHeight="1"/>
+    <row r="65518" ht="12.75" customHeight="1"/>
+    <row r="65519" ht="12.75" customHeight="1"/>
+    <row r="65520" ht="12.75" customHeight="1"/>
+    <row r="65521" ht="12.75" customHeight="1"/>
+    <row r="65522" ht="12.75" customHeight="1"/>
+    <row r="65523" ht="12.75" customHeight="1"/>
+    <row r="65524" ht="12.75" customHeight="1"/>
+    <row r="65525" ht="12.75" customHeight="1"/>
+    <row r="65526" ht="12.75" customHeight="1"/>
+    <row r="65527" ht="12.75" customHeight="1"/>
+    <row r="65528" ht="12.75" customHeight="1"/>
+    <row r="65529" ht="12.75" customHeight="1"/>
+    <row r="65530" ht="12.75" customHeight="1"/>
+    <row r="65531" ht="12.75" customHeight="1"/>
+    <row r="65532" ht="12.75" customHeight="1"/>
+    <row r="65533" ht="12.75" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;CArial,Regular"0&amp;A</oddHeader>
     <oddFooter>&amp;CArial,Regular"0Page &amp;P</oddFooter>
@@ -17958,26 +18705,23 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:AMK27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:AMK9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="110">
+    <sheetView zoomScale="110" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="19" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" style="19" width="21.33" customWidth="1"/>
-    <col min="3" max="256" style="19" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="257" max="1025" style="19" width="10.99" customWidth="1"/>
-    <col min="1026" max="16384" style="2" width="9.142307692307693"/>
+    <col min="1" max="1" width="11.3984375" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" style="19" customWidth="1"/>
+    <col min="3" max="256" width="11.3984375" style="19" bestFit="1" customWidth="1"/>
+    <col min="257" max="1025" width="11" style="19" customWidth="1"/>
+    <col min="1026" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025">
+    <row r="1" spans="1:256">
       <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
@@ -18243,18 +18987,16 @@
       <c r="IU1" s="29"/>
       <c r="IV1" s="29"/>
     </row>
-    <row r="2" spans="1:1025" ht="12.8">
+    <row r="2" spans="1:256">
       <c r="A2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>/FE</t>
-        </is>
+        <v>B108A/Pool/01</v>
+      </c>
+      <c r="C2" t="s">
+        <v>327</v>
       </c>
       <c r="D2" t="s">
         <v>97</v>
@@ -18512,13 +19254,13 @@
       <c r="IU2" s="29"/>
       <c r="IV2" s="29"/>
     </row>
-    <row r="3" spans="1:1025" ht="12.8">
+    <row r="3" spans="1:256">
       <c r="A3" t="s">
         <v>70</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C3" t="s">
         <v>72</v>
@@ -18779,13 +19521,13 @@
       <c r="IU3" s="29"/>
       <c r="IV3" s="29"/>
     </row>
-    <row r="4" spans="1:1025" ht="12.8">
+    <row r="4" spans="1:256">
       <c r="A4" t="s">
         <v>70</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C4" t="s">
         <v>76</v>
@@ -18794,13 +19536,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:1025" ht="12.8">
+    <row r="5" spans="1:256">
       <c r="A5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C5" t="s">
         <v>73</v>
@@ -18809,13 +19551,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:1025" ht="12.8">
+    <row r="6" spans="1:256">
       <c r="A6" t="s">
         <v>70</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C6" t="s">
         <v>77</v>
@@ -18824,13 +19566,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:1025" ht="12.8">
+    <row r="7" spans="1:256">
       <c r="A7" t="s">
         <v>70</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
@@ -18839,13 +19581,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:1025" ht="12.8">
+    <row r="8" spans="1:256">
       <c r="A8" t="s">
         <v>70</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C8" t="s">
         <v>78</v>
@@ -18854,13 +19596,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:1025" ht="12.8">
+    <row r="9" spans="1:256">
       <c r="A9" t="s">
         <v>70</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C9" t="s">
         <v>75</v>
@@ -18869,29 +19611,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:1025" ht="12.8"/>
-    <row r="11" spans="1:1025" ht="12.8"/>
-    <row r="12" spans="1:1025" ht="12.8"/>
-    <row r="13" spans="1:1025" ht="12.8"/>
-    <row r="14" spans="1:1025" ht="12.8"/>
-    <row r="15" spans="1:1025" ht="12.8"/>
-    <row r="16" spans="1:1025" ht="12.8"/>
-    <row r="17" spans="1:1025" ht="12.8"/>
-    <row r="18" spans="1:1025" ht="12.8"/>
-    <row r="19" spans="1:1025" ht="12.8"/>
-    <row r="20" spans="1:1025" ht="12.8"/>
-    <row r="21" spans="1:1025" ht="12.8"/>
-    <row r="22" spans="1:1025" ht="12.8"/>
-    <row r="23" spans="1:1025" ht="12.8"/>
-    <row r="24" spans="1:1025" ht="12.8"/>
-    <row r="25" spans="1:1025" ht="12.8"/>
-    <row r="26" spans="1:1025" ht="12.8"/>
-    <row r="27" spans="1:1025" ht="12.8"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;CArial,Regular"0&amp;A</oddHeader>
     <oddFooter>&amp;CArial,Regular"0Page &amp;P</oddFooter>
@@ -18900,39 +19623,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:AMK8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0" zoomScale="150" tabSelected="1">
+    <sheetView topLeftCell="D1" zoomScale="150" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.51" customWidth="1"/>
-    <col min="2" max="2" style="1" width="21.33" customWidth="1"/>
-    <col min="3" max="3" style="1" width="18.85" customWidth="1"/>
-    <col min="4" max="4" style="1" width="24.15" customWidth="1"/>
-    <col min="5" max="5" style="1" width="14.01" customWidth="1"/>
-    <col min="6" max="6" style="1" width="21.83" customWidth="1"/>
-    <col min="7" max="7" style="1" width="101.67000000000002" customWidth="1"/>
-    <col min="8" max="8" style="1" width="12.33" customWidth="1"/>
-    <col min="9" max="256" style="1" width="24" customWidth="1"/>
-    <col min="257" max="1025" style="2" width="24" customWidth="1"/>
-    <col min="1026" max="16384" style="2" width="9.142307692307693"/>
+    <col min="1" max="1" width="9.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="101.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.3984375" style="1" customWidth="1"/>
+    <col min="9" max="256" width="24" style="1" customWidth="1"/>
+    <col min="257" max="1025" width="24" style="2" customWidth="1"/>
+    <col min="1026" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" customHeight="1" ht="11.25">
+    <row r="1" spans="1:8" ht="11.25" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>Host</t>
-        </is>
+      <c r="B1" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -18946,56 +19664,37 @@
       <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="inlineStr">
-        <is>
-          <t>Path</t>
-        </is>
-      </c>
-      <c r="H1" s="5" t="inlineStr">
-        <is>
-          <t>Pools</t>
-        </is>
+      <c r="G1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:1025" ht="60.5">
+    <row r="2" spans="1:8" ht="88">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>Pool/B108A</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>The SPECIES main Device Pool.</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>Pool_B108A</t>
-        </is>
+      <c r="C2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="inlineStr">
-        <is>
-          <t>/usr/lib/python2.7/site-packages/sardana_ctrl/motor
-/usr/lib/python2.7/site-packages/sardana_ctrl/motor/IcePAPCtrl
-/usr/lib/python2.7/site-packages/sardana_ctrl/pseudocounter
-/usr/lib/python2.7/site-packages/sardana_ctrl/countertimer
-/usr/lib/python2.7/site-packages/sardana_ctrl/pseudomotor/MAXIV_SOFTXRAY
-/usr/lib/python2.7/site-packages/sardana_ctrl/ioregister
-/usr/lib/python2.7/site-packages/sardana_ctrl/countertimer/albaem2
-/usr/lib/python2.7/site-packages/speciesctrls</t>
-        </is>
+      <c r="G2" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:1025" ht="13.8">
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -19005,35 +19704,27 @@
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>The SPECIES main Macro Server.</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>MS_B108A</t>
-        </is>
+      <c r="D3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>/usr/lib/python2.7/site-packages/MAXIV_SPECIES</t>
-        </is>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" t="str">
         <f>F2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
     </row>
-    <row r="8" spans="1:1025" ht="13.8"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;CArial,Regular"0&amp;A</oddHeader>
     <oddFooter>&amp;CArial,Regular"0Page &amp;P</oddFooter>
@@ -19042,29 +19733,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:AMK3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:IV3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="110">
+    <sheetView zoomScale="110" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="1" width="19.33" customWidth="1"/>
-    <col min="2" max="2" style="1" width="20.83" customWidth="1"/>
-    <col min="3" max="3" style="1" width="22.33" customWidth="1"/>
-    <col min="4" max="4" style="1" width="19.45" customWidth="1"/>
-    <col min="5" max="5" style="1" width="14.159999999999998" customWidth="1"/>
-    <col min="6" max="256" style="1" width="10.99" customWidth="1"/>
-    <col min="257" max="1025" style="2" width="10.99" customWidth="1"/>
-    <col min="1026" max="16384" style="2" width="9.142307692307693"/>
+    <col min="1" max="1" width="19.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" style="1" customWidth="1"/>
+    <col min="6" max="256" width="11" style="1" customWidth="1"/>
+    <col min="257" max="1025" width="11" style="2" customWidth="1"/>
+    <col min="1026" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" customHeight="1" ht="11.25">
+    <row r="1" spans="1:5" ht="11.25" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -19081,14 +19769,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1025" customHeight="1" ht="11.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="11.25" customHeight="1">
+      <c r="A2" t="str">
         <f>Servers!C3</f>
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
+        <v>MacroServer/B108A</v>
+      </c>
+      <c r="B2" t="str">
         <f>Servers!F3</f>
-        <v>10</v>
+        <v>B108A/MacroServer/01</v>
       </c>
       <c r="C2" t="str">
         <f>CONCATENATE("The door for ",Global!B1," offline")</f>
@@ -19103,14 +19791,14 @@
         <v>B108A/Door/01</v>
       </c>
     </row>
-    <row r="3" spans="1:1025" customHeight="1" ht="12.75">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A3" t="str">
         <f>Servers!C3</f>
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
+        <v>MacroServer/B108A</v>
+      </c>
+      <c r="B3" t="str">
         <f>Servers!F3</f>
-        <v>10</v>
+        <v>B108A/MacroServer/01</v>
       </c>
       <c r="C3" t="str">
         <f>CONCATENATE("The main door for ",Global!B1)</f>
@@ -19127,9 +19815,8 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;CArial,Regular"0&amp;A</oddHeader>
     <oddFooter>&amp;CArial,Regular"0Page &amp;P</oddFooter>
@@ -19138,39 +19825,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:AMK1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:IV34"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="110">
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="1" width="18" customWidth="1"/>
-    <col min="2" max="2" style="1" width="14.66" customWidth="1"/>
-    <col min="3" max="3" style="1" width="26.33" customWidth="1"/>
-    <col min="4" max="4" style="1" width="36.1017263986014" customWidth="1"/>
-    <col min="5" max="5" style="1" width="19.16" customWidth="1"/>
-    <col min="6" max="6" style="1" width="71.17" customWidth="1"/>
-    <col min="7" max="7" style="1" width="34" customWidth="1"/>
-    <col min="8" max="8" style="1" width="5.33" customWidth="1"/>
-    <col min="9" max="9" style="1" width="6.499999999999999" customWidth="1"/>
-    <col min="10" max="10" style="1" width="4.33" customWidth="1"/>
-    <col min="11" max="11" style="1" width="3.64" customWidth="1"/>
-    <col min="12" max="12" style="1" width="3.8300000000000005" customWidth="1"/>
-    <col min="13" max="13" style="1" width="3.64" customWidth="1"/>
-    <col min="14" max="249" style="1" width="10.99" customWidth="1"/>
-    <col min="250" max="256" style="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="257" max="1025" style="2" width="10.99" customWidth="1"/>
-    <col min="1026" max="16384" style="2" width="9.142307692307693"/>
+    <col min="1" max="1" width="18" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="71.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.3984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.3984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.59765625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.59765625" style="1" customWidth="1"/>
+    <col min="14" max="249" width="11" style="1" customWidth="1"/>
+    <col min="250" max="256" width="11.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="257" max="1025" width="11" style="2" customWidth="1"/>
+    <col min="1026" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025">
+    <row r="1" spans="1:256">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -19180,53 +19864,35 @@
       <c r="C1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="9" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
+      <c r="D1" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Properties</t>
-        </is>
-      </c>
-      <c r="G1" s="9" t="inlineStr">
-        <is>
-          <t>Elements</t>
-        </is>
-      </c>
-      <c r="H1" s="9" t="inlineStr">
-        <is>
-          <t>MOT</t>
-        </is>
-      </c>
-      <c r="I1" s="9" t="inlineStr">
-        <is>
-          <t>PMOT</t>
-        </is>
-      </c>
-      <c r="J1" s="9" t="inlineStr">
-        <is>
-          <t>IOR</t>
-        </is>
-      </c>
-      <c r="K1" s="9" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="L1" s="9" t="inlineStr">
-        <is>
-          <t>PC</t>
-        </is>
-      </c>
-      <c r="M1" s="9" t="inlineStr">
-        <is>
-          <t>ZD</t>
-        </is>
+      <c r="F1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -19472,33 +20138,25 @@
       <c r="IU1" s="11"/>
       <c r="IV1" s="11"/>
     </row>
-    <row r="2" spans="1:1025" ht="13.8">
+    <row r="2" spans="1:256" ht="29">
       <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>icepap_ctrl_0</t>
-        </is>
-      </c>
-      <c r="D2" s="12" t="inlineStr">
-        <is>
-          <t>IcePAPCtrl.py</t>
-        </is>
-      </c>
-      <c r="E2" s="12" t="inlineStr">
-        <is>
-          <t>IcepapController</t>
-        </is>
-      </c>
-      <c r="F2" s="13" t="inlineStr">
-        <is>
-          <t>host:b108a-d100830-cab04-ctl-ipap-01; port:5000; connectionininit:False; timeout:3</t>
-        </is>
+        <v>B108A/Pool/01</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12">
@@ -19520,13 +20178,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1025" ht="13.8">
+    <row r="3" spans="1:256">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -19537,24 +20195,20 @@
       <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>hc:1.239873121E-6; iorgrx:ioregister/pgm_ioregister_ctrl/1</t>
-        </is>
-      </c>
-      <c r="G3" s="14" t="inlineStr">
-        <is>
-          <t>mono_m2pit; mono_gpit</t>
-        </is>
+      <c r="F3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:1025" ht="13.8">
+    <row r="4" spans="1:256">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -19565,24 +20219,20 @@
       <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>hc:1.239873121E-6; iorgrx:None</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>mono_m2pit; pgm_grating_hcorr</t>
-        </is>
+      <c r="F4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:1025" ht="13.8">
+    <row r="5" spans="1:256">
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -19590,88 +20240,68 @@
       <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>EnergyFromIK220</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>diffrorder:1.0; hc:12398.41856; ik220_grpitch: pc/ik220_ctrl1/1;  ik220_mpitch:pc/ik220_ctrl2/1</t>
-        </is>
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:1025" ht="13.8">
+    <row r="6" spans="1:256">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>species_energy_gap_follow_pseudo.py</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>EnergyGapFollowCtrl</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>lookup_table:/home/species-service/lookuptables/energygaplookup.txt</t>
-        </is>
-      </c>
-      <c r="G6" s="14" t="inlineStr">
-        <is>
-          <t>energy; dummy_epugap</t>
-        </is>
+      <c r="D6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:1025" ht="13.8">
+    <row r="7" spans="1:256">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>species_heydecorrlookup.py</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HeydemannCorrLookupCtrl</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>correction_table:/home/species-service/lookuptables/E380-420G_corr.txt; fine_value_device:pc/ik220_raw1/4</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>mono_gpit</t>
-        </is>
+      <c r="D7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" t="s">
+        <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:1025" ht="13.8">
+    <row r="8" spans="1:256">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -19686,13 +20316,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:1025" ht="13.8">
+    <row r="9" spans="1:256">
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -19707,13 +20337,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:1025" ht="13.8">
+    <row r="10" spans="1:256">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -19728,13 +20358,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:1025" ht="13.8">
+    <row r="11" spans="1:256">
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -19749,13 +20379,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:1025" ht="13.8">
+    <row r="12" spans="1:256">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -19769,19 +20399,17 @@
       <c r="F12" t="s">
         <v>36</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>m1_vc; m1_vl; m1_vr</t>
-        </is>
+      <c r="G12" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:1025" ht="13.8">
+    <row r="13" spans="1:256">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -19795,19 +20423,17 @@
       <c r="F13" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="14" t="inlineStr">
-        <is>
-          <t>m3_vc; m3_vl; m3_vr</t>
-        </is>
+      <c r="G13" s="14" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:1025" ht="13.8">
+    <row r="14" spans="1:256">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -19821,19 +20447,17 @@
       <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>a_m4_vc; a_m4_vl; a_m4_vr</t>
-        </is>
+      <c r="G14" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:1025" ht="13.8">
+    <row r="15" spans="1:256">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -19847,46 +20471,38 @@
       <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="14" t="inlineStr">
-        <is>
-          <t>b_m4_vc; b_m4_vl; b_m4_vr</t>
-        </is>
+      <c r="G15" s="14" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:1025" ht="13.8">
+    <row r="16" spans="1:256">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>mirror_nudge_pseudo.py</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>MirrorNudgePseudo</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>a_m4_hpit</t>
-        </is>
+      <c r="D16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:1025" ht="13.8">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
@@ -19897,19 +20513,17 @@
       <c r="E17" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="14" t="inlineStr">
-        <is>
-          <t>energy; cff; a_slit1_v</t>
-        </is>
+      <c r="G17" s="14" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:1025" ht="13.8">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>
@@ -19920,45 +20534,35 @@
       <c r="E18" t="s">
         <v>43</v>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>energy; cff; b_slit1_v</t>
-        </is>
+      <c r="G18" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:1025" ht="13.8">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>OneDExpChannel</t>
-        </is>
-      </c>
-      <c r="B19" s="12" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>rixsaq_pgs_spectrum_ctrl</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>rixsaqspectrumctrl.py</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>RixsaqSpectrumCtrl</t>
-        </is>
+        <v>B108A/Pool/01</v>
+      </c>
+      <c r="C19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:1025" ht="13.8">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C20" t="s">
         <v>45</v>
@@ -19972,20 +20576,18 @@
       <c r="F20" t="s">
         <v>48</v>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>mono_baff_vt, mono_baff_vb</t>
-        </is>
+      <c r="G20" t="s">
+        <v>155</v>
       </c>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:1025" ht="13.8">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C21" t="s">
         <v>49</v>
@@ -19999,20 +20601,18 @@
       <c r="F21" t="s">
         <v>48</v>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>mono_baff_hl; mono_baff_hr</t>
-        </is>
+      <c r="G21" t="s">
+        <v>156</v>
       </c>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:1025" ht="13.8">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C22" t="s">
         <v>50</v>
@@ -20026,20 +20626,18 @@
       <c r="F22" t="s">
         <v>48</v>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>m3_baff_vt; m3_baff_vb</t>
-        </is>
+      <c r="G22" t="s">
+        <v>157</v>
       </c>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:1025" ht="13.8">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C23" t="s">
         <v>51</v>
@@ -20053,19 +20651,17 @@
       <c r="F23" t="s">
         <v>48</v>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>m3_baff_hr; m3_baff_hl</t>
-        </is>
+      <c r="G23" t="s">
+        <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:1025" ht="13.8">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C24" t="s">
         <v>52</v>
@@ -20079,45 +20675,26 @@
       <c r="F24" t="s">
         <v>48</v>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>a_m4_baff_vt; a_m4_baff_vb</t>
-        </is>
+      <c r="G24" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:1025" ht="13.8">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <f>Servers!F$2</f>
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>a_m4_baff_hl; a_m4_baff_hr</t>
-        </is>
-      </c>
+    <row r="25" spans="1:8">
+      <c r="A25"/>
+      <c r="B25" s="12"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
     </row>
-    <row r="26" spans="1:1025" ht="13.8">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C26" t="s">
         <v>54</v>
@@ -20131,19 +20708,17 @@
       <c r="F26" t="s">
         <v>48</v>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>b_m4_baff_vt; b_m4_baff_vb</t>
-        </is>
+      <c r="G26" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:1025" ht="13.8">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C27" t="s">
         <v>55</v>
@@ -20157,19 +20732,17 @@
       <c r="F27" t="s">
         <v>48</v>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>b_m4_baff_hl; b_m4_baff_hr</t>
-        </is>
+      <c r="G27" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:1025" ht="13.8">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C28" t="s">
         <v>56</v>
@@ -20183,19 +20756,17 @@
       <c r="F28" t="s">
         <v>48</v>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>a_slit1_hdal; a_slit1_hdar</t>
-        </is>
+      <c r="G28" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:1025" ht="13.8">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C29" t="s">
         <v>57</v>
@@ -20209,56 +20780,44 @@
       <c r="F29" t="s">
         <v>48</v>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>b_slit1_hdal; b_slit1_hdar</t>
-        </is>
+      <c r="G29" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:1025" ht="13.8">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>IORegister</t>
-        </is>
-      </c>
-      <c r="B30" s="12" t="s">
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C30" t="s">
         <v>58</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>DummyIORController.py</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>DummyIORController</t>
-        </is>
+      <c r="D30" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" t="s">
+        <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:1025" ht="13.8">
+    <row r="31" spans="1:8">
       <c r="A31" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="12" t="inlineStr">
-        <is>
-          <t>DummyMotorController.py</t>
-        </is>
-      </c>
-      <c r="E31" s="12" t="inlineStr">
-        <is>
-          <t>DummyMotorController</t>
-        </is>
+      <c r="D31" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" t="s">
@@ -20268,31 +20827,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:1025" ht="13.8">
+    <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="8" t="inlineStr">
-        <is>
-          <t>DummyCounterTimerController.py</t>
-        </is>
-      </c>
-      <c r="E32" s="8" t="inlineStr">
-        <is>
-          <t>DummyCounterTimerController</t>
-        </is>
+      <c r="D32" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="1:1025" ht="13.8">
+    <row r="33" spans="1:7">
       <c r="A33" s="17" t="s">
         <v>61</v>
       </c>
@@ -20308,14 +20863,12 @@
       <c r="E33" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="17" t="inlineStr">
-        <is>
-          <t>albaemhost:b108a-o04-ctl-aem-01;port:5025</t>
-        </is>
+      <c r="F33" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="G33" s="17"/>
     </row>
-    <row r="34" spans="1:1025" ht="13.8">
+    <row r="34" spans="1:7">
       <c r="A34" s="17" t="s">
         <v>61</v>
       </c>
@@ -20331,26 +20884,15 @@
       <c r="E34" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="17" t="inlineStr">
-        <is>
-          <t>albaemhost:b108a-o04-ctl-aem-02;port:5025</t>
-        </is>
+      <c r="F34" s="17" t="s">
+        <v>172</v>
       </c>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:1025" ht="13.8"/>
-    <row r="36" spans="1:1025" ht="13.8"/>
-    <row r="37" spans="1:1025" ht="13.8"/>
-    <row r="38" spans="1:1025" ht="13.8"/>
-    <row r="39" spans="1:1025" ht="13.8"/>
-    <row r="40" spans="1:1025" ht="13.8"/>
-    <row r="1048575" spans="1:1025" ht="12.8"/>
-    <row r="1048576" spans="1:1025" ht="12.8"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;CArial,Regular"0&amp;A</oddHeader>
     <oddFooter>&amp;CArial,Regular"0Page &amp;P</oddFooter>
@@ -20359,33 +20901,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:AMK100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="110">
+    <sheetView zoomScale="110" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="12" width="13.33" customWidth="1"/>
-    <col min="2" max="2" style="12" width="17.52" customWidth="1"/>
-    <col min="3" max="3" style="12" width="24.669999999999998" customWidth="1"/>
-    <col min="4" max="4" style="12" width="22.5" customWidth="1"/>
-    <col min="5" max="5" style="12" width="22.66" customWidth="1"/>
-    <col min="6" max="6" style="12" width="4.66" customWidth="1"/>
-    <col min="7" max="7" style="12" width="9.83" customWidth="1"/>
-    <col min="8" max="8" style="12" width="19.5" customWidth="1"/>
-    <col min="9" max="9" style="12" width="63.66" customWidth="1"/>
-    <col min="10" max="256" style="12" width="10.99" customWidth="1"/>
-    <col min="257" max="1025" style="8" width="10.99" customWidth="1"/>
-    <col min="1026" max="16384" style="2" width="9.142307692307693"/>
+    <col min="1" max="1" width="13.3984375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.59765625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="22.59765625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="4.59765625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="19.3984375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="63.59765625" style="12" customWidth="1"/>
+    <col min="10" max="256" width="11" style="12" customWidth="1"/>
+    <col min="257" max="1025" width="11" style="8" customWidth="1"/>
+    <col min="1026" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" customHeight="1" ht="11.5">
+    <row r="1" spans="1:256" ht="11.5" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -20661,13 +21200,13 @@
       <c r="IU1" s="18"/>
       <c r="IV1" s="18"/>
     </row>
-    <row r="2" spans="1:1025" ht="12.8">
+    <row r="2" spans="1:256">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -20675,118 +21214,17 @@
       <c r="D2" t="s">
         <v>60</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>motor/dummy_motor_ctrl/1</t>
-        </is>
+      <c r="E2" t="s">
+        <v>173</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1025" ht="12.8"/>
-    <row r="4" spans="1:1025" ht="12.8"/>
-    <row r="5" spans="1:1025" ht="12.8"/>
-    <row r="6" spans="1:1025" ht="12.8"/>
-    <row r="7" spans="1:1025" ht="12.8"/>
-    <row r="8" spans="1:1025" ht="12.8"/>
-    <row r="9" spans="1:1025" ht="12.8"/>
-    <row r="10" spans="1:1025" ht="12.8"/>
-    <row r="11" spans="1:1025" ht="12.8"/>
-    <row r="12" spans="1:1025" ht="12.8"/>
-    <row r="13" spans="1:1025" ht="12.8"/>
-    <row r="14" spans="1:1025" ht="12.8"/>
-    <row r="15" spans="1:1025" ht="12.8"/>
-    <row r="16" spans="1:1025" ht="12.8"/>
-    <row r="17" spans="1:1025" ht="12.8"/>
-    <row r="18" spans="1:1025" ht="12.8"/>
-    <row r="19" spans="1:1025" ht="12.8"/>
-    <row r="20" spans="1:1025" ht="12.8"/>
-    <row r="21" spans="1:1025" ht="12.8"/>
-    <row r="22" spans="1:1025" ht="12.8"/>
-    <row r="23" spans="1:1025" ht="12.8"/>
-    <row r="24" spans="1:1025" ht="12.8"/>
-    <row r="25" spans="1:1025" ht="12.8"/>
-    <row r="26" spans="1:1025" ht="12.8"/>
-    <row r="27" spans="1:1025" ht="12.8"/>
-    <row r="28" spans="1:1025" ht="12.8"/>
-    <row r="29" spans="1:1025" ht="12.8"/>
-    <row r="30" spans="1:1025" ht="12.8"/>
-    <row r="31" spans="1:1025" ht="12.8"/>
-    <row r="32" spans="1:1025" ht="12.8"/>
-    <row r="33" spans="1:1025" ht="12.8"/>
-    <row r="34" spans="1:1025" ht="12.8"/>
-    <row r="35" spans="1:1025" ht="12.8"/>
-    <row r="36" spans="1:1025" ht="12.8"/>
-    <row r="37" spans="1:1025" ht="12.8"/>
-    <row r="38" spans="1:1025" ht="12.8"/>
-    <row r="39" spans="1:1025" ht="12.8"/>
-    <row r="40" spans="1:1025" ht="12.8"/>
-    <row r="41" spans="1:1025" ht="12.8"/>
-    <row r="42" spans="1:1025" ht="12.8"/>
-    <row r="43" spans="1:1025" ht="12.8"/>
-    <row r="44" spans="1:1025" ht="12.8"/>
-    <row r="45" spans="1:1025" ht="12.8"/>
-    <row r="46" spans="1:1025" ht="12.8"/>
-    <row r="47" spans="1:1025" ht="12.8"/>
-    <row r="48" spans="1:1025" ht="12.8"/>
-    <row r="49" spans="1:1025" ht="12.8"/>
-    <row r="50" spans="1:1025" ht="12.8"/>
-    <row r="51" spans="1:1025" ht="12.8"/>
-    <row r="52" spans="1:1025" ht="12.8"/>
-    <row r="53" spans="1:1025" ht="12.8"/>
-    <row r="54" spans="1:1025" ht="12.8"/>
-    <row r="55" spans="1:1025" ht="12.8"/>
-    <row r="56" spans="1:1025" ht="12.8"/>
-    <row r="57" spans="1:1025" ht="12.8"/>
-    <row r="58" spans="1:1025" ht="12.8"/>
-    <row r="59" spans="1:1025" ht="12.8"/>
-    <row r="60" spans="1:1025" ht="12.8"/>
-    <row r="61" spans="1:1025" ht="12.8"/>
-    <row r="62" spans="1:1025" ht="12.8"/>
-    <row r="63" spans="1:1025" ht="12.8"/>
-    <row r="64" spans="1:1025" ht="12.8"/>
-    <row r="65" spans="1:1025" ht="12.8"/>
-    <row r="66" spans="1:1025" ht="12.8"/>
-    <row r="67" spans="1:1025" ht="12.8"/>
-    <row r="68" spans="1:1025" ht="12.8"/>
-    <row r="69" spans="1:1025" ht="12.8"/>
-    <row r="70" spans="1:1025" ht="12.8"/>
-    <row r="71" spans="1:1025" ht="12.8"/>
-    <row r="72" spans="1:1025" ht="12.8"/>
-    <row r="73" spans="1:1025" ht="12.8"/>
-    <row r="74" spans="1:1025" ht="12.8"/>
-    <row r="75" spans="1:1025" ht="12.8"/>
-    <row r="76" spans="1:1025" ht="12.8"/>
-    <row r="77" spans="1:1025" ht="12.8"/>
-    <row r="78" spans="1:1025" ht="12.8"/>
-    <row r="79" spans="1:1025" ht="12.8"/>
-    <row r="80" spans="1:1025" ht="12.8"/>
-    <row r="81" spans="1:1025" ht="12.8"/>
-    <row r="82" spans="1:1025" ht="12.8"/>
-    <row r="83" spans="1:1025" ht="12.8"/>
-    <row r="84" spans="1:1025" ht="12.8"/>
-    <row r="85" spans="1:1025" ht="12.8"/>
-    <row r="86" spans="1:1025" ht="12.8"/>
-    <row r="87" spans="1:1025" ht="12.8"/>
-    <row r="88" spans="1:1025" ht="12.8"/>
-    <row r="89" spans="1:1025" ht="12.8"/>
-    <row r="90" spans="1:1025" ht="12.8"/>
-    <row r="91" spans="1:1025" ht="12.8"/>
-    <row r="92" spans="1:1025" ht="12.8"/>
-    <row r="93" spans="1:1025" ht="12.8"/>
-    <row r="94" spans="1:1025" ht="12.8"/>
-    <row r="95" spans="1:1025" ht="12.8"/>
-    <row r="96" spans="1:1025" ht="12.8"/>
-    <row r="97" spans="1:1025" ht="12.8"/>
-    <row r="98" spans="1:1025" ht="12.8"/>
-    <row r="99" spans="1:1025" ht="12.8"/>
-    <row r="100" spans="1:1025" ht="12.8"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;CArial,Regular"0&amp;A</oddHeader>
     <oddFooter>&amp;CArial,Regular"0Page &amp;P</oddFooter>
@@ -20795,30 +21233,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:AMK1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AMK42"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0" zoomScale="110">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView topLeftCell="A7" zoomScale="110" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="19" width="19.99" customWidth="1"/>
-    <col min="2" max="2" style="19" width="22.66" customWidth="1"/>
-    <col min="3" max="3" style="19" width="27.99" customWidth="1"/>
-    <col min="4" max="4" style="19" width="19.99" customWidth="1"/>
-    <col min="5" max="5" style="19" width="30.82" customWidth="1"/>
-    <col min="6" max="7" style="19" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" style="19" width="20.83" customWidth="1"/>
-    <col min="9" max="1025" style="19" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="1026" max="16384" style="2" width="9.142307692307693"/>
+    <col min="1" max="1" width="20" style="19" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="28" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20" style="19" customWidth="1"/>
+    <col min="5" max="5" width="30.796875" style="19" customWidth="1"/>
+    <col min="6" max="7" width="11.3984375" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.796875" style="19" customWidth="1"/>
+    <col min="9" max="1025" width="11.3984375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025">
+    <row r="1" spans="1:9">
       <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
@@ -20847,222 +21282,176 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:1025" ht="13.8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>energy</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>pm/energy_ctrl/1</t>
-        </is>
+      <c r="D2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" t="s">
+        <v>175</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Energy</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>FixedMirrorPit:true; offsetGrLE:0; offsetMLE:0</t>
-        </is>
+      <c r="H2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I2" t="s">
+        <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:1025" ht="12.8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>cff</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>pm/energy_ctrl/2</t>
-        </is>
+      <c r="D3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" t="s">
+        <v>179</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Cff</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>FixedMirrorPit:false</t>
-        </is>
+      <c r="H3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I3" t="s">
+        <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:1025" ht="12.8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>energy_hcorr</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>pm/energy_ctrl_hcorr/1</t>
-        </is>
+      <c r="D4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" t="s">
+        <v>183</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Hcorr Energy</t>
-        </is>
+      <c r="H4" t="s">
+        <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:1025" ht="12.8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>cff_hcorr</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>pm/energy_ctrl_hcorr/2</t>
-        </is>
+      <c r="D5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" t="s">
+        <v>186</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Hcorr Cff</t>
-        </is>
+      <c r="H5" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:1025" ht="12.8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>energyfollowgap</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>pm/energygapfollow_ctrl/1</t>
-        </is>
+      <c r="D6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" t="s">
+        <v>189</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>EnergyFollowGap</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>GapOffset:0; Harmonic:3</t>
-        </is>
+      <c r="H6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I6" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:1025" ht="12.8">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>pgm_grating_hcorr</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>pm/heyde_grating_ctrl/1</t>
-        </is>
+      <c r="D7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" t="s">
+        <v>193</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Hcorr Grating</t>
-        </is>
+      <c r="H7" t="s">
+        <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:1025" ht="12.8">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>m1_y</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>pm/m1_pseudo_ctrl/1</t>
-        </is>
+      <c r="D8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" t="s">
+        <v>196</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -21071,26 +21460,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:1025" ht="12.8">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>m1_yaw</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>pm/m1_pseudo_ctrl/2</t>
-        </is>
+      <c r="D9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" t="s">
+        <v>198</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -21099,26 +21484,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:1025" ht="12.8">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>m1_roll</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>pm/m1_pseudo_ctrl/3</t>
-        </is>
+      <c r="D10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" t="s">
+        <v>200</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -21127,26 +21508,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:1025" ht="12.8">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>m3_y</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>pm/m3_pseudo_ctrl/1</t>
-        </is>
+      <c r="D11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" t="s">
+        <v>202</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -21155,26 +21532,22 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:1025" ht="12.8">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>m3_yaw</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>pm/m3_pseudo_ctrl/2</t>
-        </is>
+      <c r="D12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" t="s">
+        <v>204</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -21183,26 +21556,22 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:1025" ht="12.8">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>m3_roll</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>pm/m3_pseudo_ctrl/3</t>
-        </is>
+      <c r="D13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" t="s">
+        <v>206</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -21211,26 +21580,22 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:1025" ht="12.8">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>m4h_pitch_nudge</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>pm/a_m4_nudge_ctrl/1</t>
-        </is>
+      <c r="D14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" t="s">
+        <v>208</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -21238,37 +21603,29 @@
       <c r="G14" t="s">
         <v>74</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>HPXPS M4 Pitch Nudge</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Center:122.76</t>
-        </is>
+      <c r="H14" t="s">
+        <v>209</v>
+      </c>
+      <c r="I14" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:1025" ht="12.8">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>a_m4_y</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>pm/a_m4_pseudo_ctrl/1</t>
-        </is>
+      <c r="D15" t="s">
+        <v>211</v>
+      </c>
+      <c r="E15" t="s">
+        <v>212</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -21277,26 +21634,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:1025" ht="12.8">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>a_m4_yaw</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>pm/a_m4_pseudo_ctrl/2</t>
-        </is>
+      <c r="D16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" t="s">
+        <v>214</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -21305,26 +21658,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:1025" ht="12.8">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>a_m4_roll</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>pm/a_m4_pseudo_ctrl/3</t>
-        </is>
+      <c r="D17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" t="s">
+        <v>216</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -21333,26 +21682,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:1025" ht="12.8">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>b_m4_y</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>pm/b_m4_pseudo_ctrl/1</t>
-        </is>
+      <c r="D18" t="s">
+        <v>217</v>
+      </c>
+      <c r="E18" t="s">
+        <v>218</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -21361,26 +21706,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:1025" ht="12.8">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>b_m4_yaw</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>pm/b_m4_pseudo_ctrl/2</t>
-        </is>
+      <c r="D19" t="s">
+        <v>219</v>
+      </c>
+      <c r="E19" t="s">
+        <v>220</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -21389,26 +21730,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:1025" ht="12.8">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>b_m4_roll</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>pm/b_m4_pseudo_ctrl/3</t>
-        </is>
+      <c r="D20" t="s">
+        <v>221</v>
+      </c>
+      <c r="E20" t="s">
+        <v>222</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -21417,86 +21754,70 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:1025" ht="12.8">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>a_monores</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>pm/a_monorescal_ctrl/1</t>
-        </is>
+      <c r="D21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E21" t="s">
+        <v>224</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>HPXPS Mono Res</t>
-        </is>
+      <c r="H21" t="s">
+        <v>225</v>
       </c>
     </row>
-    <row r="22" spans="1:1025" ht="12.8">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>b_monores</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>pm/b_monorescal_ctrl/1</t>
-        </is>
+      <c r="D22" t="s">
+        <v>226</v>
+      </c>
+      <c r="E22" t="s">
+        <v>227</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>RIXS Mono Res</t>
-        </is>
+      <c r="H22" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:1025" ht="12.8">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>mono_baff_v_gap</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>pm/mono_baff_h_ctrl/1</t>
-        </is>
+      <c r="D23" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" t="s">
+        <v>230</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -21505,26 +21826,22 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:1025" ht="12.8">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>mono_baff_v_offset</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>pm/mono_baff_h_ctrl/2</t>
-        </is>
+      <c r="D24" t="s">
+        <v>231</v>
+      </c>
+      <c r="E24" t="s">
+        <v>232</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -21533,26 +21850,22 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:1025" ht="12.8">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>mono_baff_h_gap</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>pm/mono_baff_v_ctrl/1</t>
-        </is>
+      <c r="D25" t="s">
+        <v>233</v>
+      </c>
+      <c r="E25" t="s">
+        <v>234</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -21561,26 +21874,22 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:1025" ht="12.8">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>mono_baff_h_offset</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>pm/mono_baff_v_ctrl/2</t>
-        </is>
+      <c r="D26" t="s">
+        <v>235</v>
+      </c>
+      <c r="E26" t="s">
+        <v>236</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -21589,26 +21898,22 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:1025" ht="12.8">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>m3_baff_v_gap</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>pm/m3_baff_h_ctrl/1</t>
-        </is>
+      <c r="D27" t="s">
+        <v>237</v>
+      </c>
+      <c r="E27" t="s">
+        <v>238</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -21617,26 +21922,22 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:1025" ht="12.8">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>m3_baff_v_offset</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>pm/m3_baff_h_ctrl/2</t>
-        </is>
+      <c r="D28" t="s">
+        <v>239</v>
+      </c>
+      <c r="E28" t="s">
+        <v>240</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -21645,26 +21946,22 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:1025" ht="12.8">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>m3_baff_h_gap</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>pm/m3_baff_v_ctrl/1</t>
-        </is>
+      <c r="D29" t="s">
+        <v>241</v>
+      </c>
+      <c r="E29" t="s">
+        <v>242</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -21673,26 +21970,22 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:1025" ht="12.8">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>m3_baff_h_offset</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>pm/m3_baff_v_ctrl/2</t>
-        </is>
+      <c r="D30" t="s">
+        <v>243</v>
+      </c>
+      <c r="E30" t="s">
+        <v>244</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -21701,26 +21994,22 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:1025" ht="12.8">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>a_m4_baff_v_gap</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>pm/a_m4_baff_h_ctrl/1</t>
-        </is>
+      <c r="D31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E31" t="s">
+        <v>246</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -21729,26 +22018,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:1025" ht="12.8">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>a_m4_baff_v_offset</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>pm/a_m4_baff_h_ctrl/2</t>
-        </is>
+      <c r="D32" t="s">
+        <v>247</v>
+      </c>
+      <c r="E32" t="s">
+        <v>248</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -21757,26 +22042,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:1025" ht="12.8">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>a_m4_baff_h_gap</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>pm/a_m4_baff_v_ctrl/1</t>
-        </is>
+      <c r="D33" t="s">
+        <v>249</v>
+      </c>
+      <c r="E33" t="s">
+        <v>250</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -21785,26 +22066,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:1025" ht="12.8">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>a_m4_baff_h_offset</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>pm/a_m4_baff_v_ctrl/2</t>
-        </is>
+      <c r="D34" t="s">
+        <v>251</v>
+      </c>
+      <c r="E34" t="s">
+        <v>252</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -21813,26 +22090,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:1025" ht="12.8">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>b_m4_baff_v_gap</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>pm/b_m4_baff_h_ctrl/1</t>
-        </is>
+      <c r="D35" t="s">
+        <v>253</v>
+      </c>
+      <c r="E35" t="s">
+        <v>254</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -21841,26 +22114,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:1025" ht="12.8">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>b_m4_baff_v_offset</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>pm/b_m4_baff_h_ctrl/2</t>
-        </is>
+      <c r="D36" t="s">
+        <v>255</v>
+      </c>
+      <c r="E36" t="s">
+        <v>256</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -21869,26 +22138,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:1025" ht="12.8">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>b_m4_baff_h_gap</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>pm/b_m4_baff_v_ctrl/1</t>
-        </is>
+      <c r="D37" t="s">
+        <v>257</v>
+      </c>
+      <c r="E37" t="s">
+        <v>258</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -21897,26 +22162,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:1025" ht="12.8">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>b_m4_baff_h_offset</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>pm/b_m4_baff_v_ctrl/2</t>
-        </is>
+      <c r="D38" t="s">
+        <v>259</v>
+      </c>
+      <c r="E38" t="s">
+        <v>260</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -21925,26 +22186,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:1025" ht="12.8">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>a_slit1_h_gap</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>pm/a_slit1_v_ctrl/1</t>
-        </is>
+      <c r="D39" t="s">
+        <v>261</v>
+      </c>
+      <c r="E39" t="s">
+        <v>262</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -21952,32 +22209,26 @@
       <c r="G39" t="s">
         <v>77</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>HPXPS Slit Size</t>
-        </is>
+      <c r="H39" t="s">
+        <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:1025" ht="12.8">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>a_slit1_h_offset</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>pm/a_slit1_v_ctrl/2</t>
-        </is>
+      <c r="D40" t="s">
+        <v>264</v>
+      </c>
+      <c r="E40" t="s">
+        <v>265</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -21986,26 +22237,22 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:1025" ht="12.8">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>b_slit1_h_gap</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>pm/b_slit1_v_ctrl/1</t>
-        </is>
+      <c r="D41" t="s">
+        <v>266</v>
+      </c>
+      <c r="E41" t="s">
+        <v>267</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -22013,32 +22260,26 @@
       <c r="G41" t="s">
         <v>78</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>RIXS Slit Size</t>
-        </is>
+      <c r="H41" t="s">
+        <v>268</v>
       </c>
     </row>
-    <row r="42" spans="1:1025" ht="12.8">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>b_slit1_h_offset</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>pm/b_slit1_v_ctrl/2</t>
-        </is>
+      <c r="D42" t="s">
+        <v>269</v>
+      </c>
+      <c r="E42" t="s">
+        <v>270</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -22047,57 +22288,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:1025" ht="12.8"/>
-    <row r="44" spans="1:1025" ht="12.8"/>
-    <row r="45" spans="1:1025" ht="12.8"/>
-    <row r="46" spans="1:1025" ht="12.8"/>
-    <row r="47" spans="1:1025" ht="12.8"/>
-    <row r="48" spans="1:1025" ht="12.8"/>
-    <row r="49" spans="1:1025" ht="12.8"/>
-    <row r="50" spans="1:1025" ht="12.8"/>
-    <row r="51" spans="1:1025" ht="12.8"/>
-    <row r="52" spans="1:1025" ht="12.8"/>
-    <row r="53" spans="1:1025" ht="12.8"/>
-    <row r="54" spans="1:1025" ht="12.8"/>
-    <row r="55" spans="1:1025" ht="12.8"/>
-    <row r="56" spans="1:1025" ht="12.8"/>
-    <row r="57" spans="1:1025" ht="12.8"/>
-    <row r="58" spans="1:1025" ht="12.8"/>
-    <row r="59" spans="1:1025" ht="12.8"/>
-    <row r="60" spans="1:1025" ht="12.8"/>
-    <row r="61" spans="1:1025" ht="12.8"/>
-    <row r="62" spans="1:1025" ht="12.8"/>
-    <row r="63" spans="1:1025" ht="12.8"/>
-    <row r="64" spans="1:1025" ht="12.8"/>
-    <row r="65" spans="1:1025" ht="12.8"/>
-    <row r="66" spans="1:1025" ht="12.8"/>
-    <row r="67" spans="1:1025" ht="12.8"/>
-    <row r="68" spans="1:1025" ht="12.8"/>
-    <row r="69" spans="1:1025" ht="12.8"/>
-    <row r="70" spans="1:1025" ht="12.8"/>
-    <row r="71" spans="1:1025" ht="12.8"/>
-    <row r="72" spans="1:1025" ht="12.8"/>
-    <row r="73" spans="1:1025" ht="12.8"/>
-    <row r="74" spans="1:1025" ht="12.8"/>
-    <row r="75" spans="1:1025" ht="12.8"/>
-    <row r="76" spans="1:1025" ht="12.8"/>
-    <row r="77" spans="1:1025" ht="12.8"/>
-    <row r="78" spans="1:1025" ht="12.8"/>
-    <row r="79" spans="1:1025" ht="12.8"/>
-    <row r="80" spans="1:1025" ht="12.8"/>
-    <row r="81" spans="1:1025" ht="12.8"/>
-    <row r="82" spans="1:1025" ht="12.8"/>
-    <row r="83" spans="1:1025" ht="12.8"/>
-    <row r="84" spans="1:1025" ht="12.8"/>
-    <row r="85" spans="1:1025" ht="12.8"/>
-    <row r="86" spans="1:1025" ht="12.8"/>
-    <row r="1048575" spans="1:1025" ht="12.8"/>
-    <row r="1048576" spans="1:1025" ht="12.8"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;CArial,Regular"0&amp;A</oddHeader>
     <oddFooter>&amp;CArial,Regular"0Page &amp;P</oddFooter>
@@ -22106,32 +22300,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:AMK65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:IV65536"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="110">
+    <sheetView zoomScale="110" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="1" width="8.67" customWidth="1"/>
-    <col min="2" max="2" style="1" width="11.99" customWidth="1"/>
-    <col min="3" max="3" style="1" width="13.66" customWidth="1"/>
-    <col min="4" max="4" style="1" width="9.33" customWidth="1"/>
-    <col min="5" max="5" style="1" width="24.63" customWidth="1"/>
-    <col min="6" max="6" style="1" width="4.5" customWidth="1"/>
-    <col min="7" max="8" style="1" width="10.5" customWidth="1"/>
-    <col min="9" max="9" style="1" width="72.02" customWidth="1"/>
-    <col min="10" max="256" style="1" width="10.99" customWidth="1"/>
-    <col min="257" max="1025" style="2" width="10.99" customWidth="1"/>
-    <col min="1026" max="16384" style="2" width="9.142307692307693"/>
+    <col min="1" max="1" width="8.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.3984375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.3984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="72" style="1" customWidth="1"/>
+    <col min="10" max="256" width="11" style="1" customWidth="1"/>
+    <col min="257" max="1025" width="11" style="2" customWidth="1"/>
+    <col min="1026" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" customHeight="1" ht="10.5">
+    <row r="1" spans="1:256" ht="10.5" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -22407,51 +22598,40 @@
       <c r="IU1" s="5"/>
       <c r="IV1" s="5"/>
     </row>
-    <row r="2" spans="1:1025" ht="13.8">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>IOREgister</t>
-        </is>
-      </c>
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:256">
+      <c r="A2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>pgm_ior</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ioregister/pgm_ioregister_ctrl/1</t>
-        </is>
+      <c r="D2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" t="s">
+        <v>273</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1025" ht="13.8"/>
-    <row r="4" spans="1:1025" ht="13.8"/>
-    <row r="5" spans="1:1025" ht="13.8"/>
-    <row r="6" spans="1:1025" ht="13.8"/>
-    <row r="65528" spans="1:1025" customHeight="1" ht="12.75"/>
-    <row r="65529" spans="1:1025" customHeight="1" ht="12.75"/>
-    <row r="65530" spans="1:1025" customHeight="1" ht="12.75"/>
-    <row r="65531" spans="1:1025" customHeight="1" ht="12.75"/>
-    <row r="65532" spans="1:1025" customHeight="1" ht="12.75"/>
-    <row r="65533" spans="1:1025" customHeight="1" ht="12.75"/>
-    <row r="65534" spans="1:1025" customHeight="1" ht="12.75"/>
-    <row r="65535" spans="1:1025" customHeight="1" ht="12.75"/>
-    <row r="65536" spans="1:1025" customHeight="1" ht="12.75"/>
+    <row r="65528" ht="12.75" customHeight="1"/>
+    <row r="65529" ht="12.75" customHeight="1"/>
+    <row r="65530" ht="12.75" customHeight="1"/>
+    <row r="65531" ht="12.75" customHeight="1"/>
+    <row r="65532" ht="12.75" customHeight="1"/>
+    <row r="65533" ht="12.75" customHeight="1"/>
+    <row r="65534" ht="12.75" customHeight="1"/>
+    <row r="65535" ht="12.75" customHeight="1"/>
+    <row r="65536" ht="12.75" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;CArial,Regular"0&amp;A</oddHeader>
     <oddFooter>&amp;CArial,Regular"0Page &amp;P</oddFooter>
@@ -22460,33 +22640,30 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:AMK105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AMK40"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="110">
+    <sheetView zoomScale="110" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="21" width="13.830000000000002" customWidth="1"/>
-    <col min="2" max="2" style="21" width="18" customWidth="1"/>
-    <col min="3" max="3" style="21" width="28.5" customWidth="1"/>
-    <col min="4" max="4" style="21" width="25.16" customWidth="1"/>
-    <col min="5" max="5" style="21" width="29.348885489510486" customWidth="1"/>
-    <col min="6" max="6" style="21" width="4.5" customWidth="1"/>
-    <col min="7" max="7" style="21" width="10" customWidth="1"/>
-    <col min="8" max="8" style="21" width="26.33" customWidth="1"/>
-    <col min="9" max="9" style="21" width="78.33" customWidth="1"/>
-    <col min="10" max="256" style="21" width="10.99" customWidth="1"/>
-    <col min="257" max="1025" style="19" width="10.99" customWidth="1"/>
-    <col min="1026" max="16384" style="2" width="9.142307692307693"/>
+    <col min="1" max="1" width="13.796875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="18" style="21" customWidth="1"/>
+    <col min="3" max="3" width="28.3984375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="25.19921875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="29.3984375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="4.3984375" style="21" customWidth="1"/>
+    <col min="7" max="7" width="10" style="21" customWidth="1"/>
+    <col min="8" max="8" width="26.3984375" style="21" customWidth="1"/>
+    <col min="9" max="9" width="78.3984375" style="21" customWidth="1"/>
+    <col min="10" max="256" width="11" style="21" customWidth="1"/>
+    <col min="257" max="1025" width="11" style="19" customWidth="1"/>
+    <col min="1026" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025">
+    <row r="1" spans="1:256">
       <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
@@ -22762,21 +22939,19 @@
       <c r="IU1" s="20"/>
       <c r="IV1" s="20"/>
     </row>
-    <row r="2" spans="1:1025" ht="12.8">
+    <row r="2" spans="1:256">
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>gr_1</t>
-        </is>
+      <c r="D2" t="s">
+        <v>274</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -22785,21 +22960,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1025" customHeight="1" ht="11.25">
+    <row r="3" spans="1:256" ht="11.25" customHeight="1">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>gr_2</t>
-        </is>
+      <c r="D3" t="s">
+        <v>275</v>
       </c>
       <c r="E3" t="s">
         <v>79</v>
@@ -22808,21 +22981,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1025" customHeight="1" ht="11.25">
+    <row r="4" spans="1:256" ht="11.25" customHeight="1">
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>gr_3</t>
-        </is>
+      <c r="D4" t="s">
+        <v>276</v>
       </c>
       <c r="E4" t="s">
         <v>79</v>
@@ -22831,21 +23002,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1025" customHeight="1" ht="11.25">
+    <row r="5" spans="1:256" ht="11.25" customHeight="1">
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>gr_4</t>
-        </is>
+      <c r="D5" t="s">
+        <v>277</v>
       </c>
       <c r="E5" t="s">
         <v>79</v>
@@ -22854,21 +23023,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1025" customHeight="1" ht="11.25">
+    <row r="6" spans="1:256" ht="11.25" customHeight="1">
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>gr_mean</t>
-        </is>
+      <c r="D6" t="s">
+        <v>278</v>
       </c>
       <c r="E6" t="s">
         <v>79</v>
@@ -22877,21 +23044,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1025" customHeight="1" ht="11.25">
+    <row r="7" spans="1:256" ht="11.25" customHeight="1">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>mirror_1</t>
-        </is>
+      <c r="D7" t="s">
+        <v>279</v>
       </c>
       <c r="E7" t="s">
         <v>79</v>
@@ -22900,21 +23065,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1025" customHeight="1" ht="11.25">
+    <row r="8" spans="1:256" ht="11.25" customHeight="1">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>mirror_2</t>
-        </is>
+      <c r="D8" t="s">
+        <v>280</v>
       </c>
       <c r="E8" t="s">
         <v>79</v>
@@ -22923,21 +23086,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:1025" ht="12.8">
+    <row r="9" spans="1:256">
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>mirror_3</t>
-        </is>
+      <c r="D9" t="s">
+        <v>281</v>
       </c>
       <c r="E9" t="s">
         <v>79</v>
@@ -22946,21 +23107,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1025" ht="12.8">
+    <row r="10" spans="1:256">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>mirror_4</t>
-        </is>
+      <c r="D10" t="s">
+        <v>282</v>
       </c>
       <c r="E10" t="s">
         <v>79</v>
@@ -22969,21 +23128,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1025" ht="12.8">
+    <row r="11" spans="1:256">
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>mirror_mean</t>
-        </is>
+      <c r="D11" t="s">
+        <v>283</v>
       </c>
       <c r="E11" t="s">
         <v>79</v>
@@ -22992,21 +23149,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:1025" ht="12.8">
+    <row r="12" spans="1:256">
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>energy_1</t>
-        </is>
+      <c r="D12" t="s">
+        <v>284</v>
       </c>
       <c r="E12" t="s">
         <v>79</v>
@@ -23015,21 +23170,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:1025" ht="12.8">
+    <row r="13" spans="1:256">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>cff_1</t>
-        </is>
+      <c r="D13" t="s">
+        <v>285</v>
       </c>
       <c r="E13" t="s">
         <v>79</v>
@@ -23038,21 +23191,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:1025" ht="12.8">
+    <row r="14" spans="1:256">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ik220_1_1c</t>
-        </is>
+      <c r="D14" t="s">
+        <v>286</v>
       </c>
       <c r="E14" t="s">
         <v>79</v>
@@ -23061,21 +23212,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:1025" ht="12.8">
+    <row r="15" spans="1:256">
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ik220_1_1f</t>
-        </is>
+      <c r="D15" t="s">
+        <v>287</v>
       </c>
       <c r="E15" t="s">
         <v>79</v>
@@ -23084,21 +23233,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:1025" ht="12.8">
+    <row r="16" spans="1:256">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ik220_1_2c</t>
-        </is>
+      <c r="D16" t="s">
+        <v>288</v>
       </c>
       <c r="E16" t="s">
         <v>79</v>
@@ -23107,21 +23254,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:1025" ht="12.8">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ik220_1_2f</t>
-        </is>
+      <c r="D17" t="s">
+        <v>289</v>
       </c>
       <c r="E17" t="s">
         <v>79</v>
@@ -23130,21 +23275,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:1025" ht="12.8">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ik220_1_3c</t>
-        </is>
+      <c r="D18" t="s">
+        <v>290</v>
       </c>
       <c r="E18" t="s">
         <v>79</v>
@@ -23153,21 +23296,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:1025" ht="12.8">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>ik220_1_3f</t>
-        </is>
+      <c r="D19" t="s">
+        <v>291</v>
       </c>
       <c r="E19" t="s">
         <v>79</v>
@@ -23176,21 +23317,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:1025" ht="12.8">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>ik220_1_4c</t>
-        </is>
+      <c r="D20" t="s">
+        <v>292</v>
       </c>
       <c r="E20" t="s">
         <v>79</v>
@@ -23199,21 +23338,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:1025" ht="12.8">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>ik220_1_4f</t>
-        </is>
+      <c r="D21" t="s">
+        <v>293</v>
       </c>
       <c r="E21" t="s">
         <v>79</v>
@@ -23222,21 +23359,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:1025" ht="12.8">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Ik220_2_1c</t>
-        </is>
+      <c r="D22" t="s">
+        <v>294</v>
       </c>
       <c r="E22" t="s">
         <v>79</v>
@@ -23245,21 +23380,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:1025" ht="12.8">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Ik220_2_1f</t>
-        </is>
+      <c r="D23" t="s">
+        <v>295</v>
       </c>
       <c r="E23" t="s">
         <v>79</v>
@@ -23268,21 +23401,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:1025" ht="12.8">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Ik220_2_2c</t>
-        </is>
+      <c r="D24" t="s">
+        <v>296</v>
       </c>
       <c r="E24" t="s">
         <v>79</v>
@@ -23291,21 +23422,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:1025" ht="12.8">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Ik220_2_2f</t>
-        </is>
+      <c r="D25" t="s">
+        <v>297</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
@@ -23314,21 +23443,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:1025" ht="12.8">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Ik220_2_3c</t>
-        </is>
+      <c r="D26" t="s">
+        <v>298</v>
       </c>
       <c r="E26" t="s">
         <v>79</v>
@@ -23337,21 +23464,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:1025" ht="12.8">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Ik220_2_3f</t>
-        </is>
+      <c r="D27" t="s">
+        <v>299</v>
       </c>
       <c r="E27" t="s">
         <v>79</v>
@@ -23360,21 +23485,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:1025" ht="12.8">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Ik220_2_4c</t>
-        </is>
+      <c r="D28" t="s">
+        <v>300</v>
       </c>
       <c r="E28" t="s">
         <v>79</v>
@@ -23383,21 +23506,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:1025" ht="12.8">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Ik220_2_4f</t>
-        </is>
+      <c r="D29" t="s">
+        <v>301</v>
       </c>
       <c r="E29" t="s">
         <v>79</v>
@@ -23406,13 +23527,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:1025" ht="12.8">
+    <row r="30" spans="1:6">
       <c r="A30" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C30" t="s">
         <v>62</v>
@@ -23427,13 +23548,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:1025" ht="12.8">
+    <row r="31" spans="1:6">
       <c r="A31" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>63</v>
@@ -23448,13 +23569,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:1025" ht="12.8">
+    <row r="32" spans="1:6">
       <c r="A32" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>63</v>
@@ -23469,13 +23590,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:1025" ht="12.8">
+    <row r="33" spans="1:6">
       <c r="A33" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>63</v>
@@ -23490,13 +23611,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:1025" ht="12.8">
+    <row r="34" spans="1:6">
       <c r="A34" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>63</v>
@@ -23511,13 +23632,13 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:1025" ht="12.8">
+    <row r="35" spans="1:6">
       <c r="A35" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>63</v>
@@ -23532,201 +23653,115 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:1025" ht="12.8">
+    <row r="36" spans="1:6">
       <c r="A36" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="17" t="inlineStr">
-        <is>
-          <t>aem_o04_02_timer</t>
-        </is>
-      </c>
-      <c r="E36" s="17" t="inlineStr">
-        <is>
-          <t>B108A-O04/CTL/AEM-02-TIMER</t>
-        </is>
+      <c r="D36" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>303</v>
       </c>
       <c r="F36" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:1025" ht="12.8">
+    <row r="37" spans="1:6">
       <c r="A37" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="17" t="inlineStr">
-        <is>
-          <t>aem_o04_02_ch1</t>
-        </is>
-      </c>
-      <c r="E37" s="17" t="inlineStr">
-        <is>
-          <t>B108A-O04/CTL/AEM-02-CH1</t>
-        </is>
+      <c r="D37" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>305</v>
       </c>
       <c r="F37" s="17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:1025" ht="12.8">
+    <row r="38" spans="1:6">
       <c r="A38" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="17" t="inlineStr">
-        <is>
-          <t>aem_o04_02_ch2</t>
-        </is>
-      </c>
-      <c r="E38" s="17" t="inlineStr">
-        <is>
-          <t>B108A-O04/CTL/AEM-02-CH2</t>
-        </is>
+      <c r="D38" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>307</v>
       </c>
       <c r="F38" s="17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:1025" ht="12.8">
+    <row r="39" spans="1:6">
       <c r="A39" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="17" t="inlineStr">
-        <is>
-          <t>aem_o04_02_ch3</t>
-        </is>
-      </c>
-      <c r="E39" s="17" t="inlineStr">
-        <is>
-          <t>B108A-O04/CTL/AEM-02-CH3</t>
-        </is>
+      <c r="D39" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>309</v>
       </c>
       <c r="F39" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:1025" ht="12.8">
+    <row r="40" spans="1:6">
       <c r="A40" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="12" t="str">
         <f>Servers!F$2</f>
-        <v>7</v>
+        <v>B108A/Pool/01</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="17" t="inlineStr">
-        <is>
-          <t>aem_o04_02_ch4</t>
-        </is>
-      </c>
-      <c r="E40" s="17" t="inlineStr">
-        <is>
-          <t>B108A-O04/CTL/AEM-02-CH4</t>
-        </is>
+      <c r="D40" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>311</v>
       </c>
       <c r="F40" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:1025" ht="12.8"/>
-    <row r="42" spans="1:1025" ht="12.8"/>
-    <row r="43" spans="1:1025" ht="12.8"/>
-    <row r="44" spans="1:1025" ht="12.8"/>
-    <row r="45" spans="1:1025" ht="12.8"/>
-    <row r="46" spans="1:1025" ht="12.8"/>
-    <row r="47" spans="1:1025" ht="12.8"/>
-    <row r="48" spans="1:1025" ht="12.8"/>
-    <row r="49" spans="1:1025" ht="12.8"/>
-    <row r="50" spans="1:1025" ht="12.8"/>
-    <row r="51" spans="1:1025" ht="12.8"/>
-    <row r="52" spans="1:1025" ht="12.8"/>
-    <row r="53" spans="1:1025" ht="12.8"/>
-    <row r="54" spans="1:1025" ht="12.8"/>
-    <row r="55" spans="1:1025" ht="12.8"/>
-    <row r="56" spans="1:1025" ht="12.8"/>
-    <row r="57" spans="1:1025" ht="12.8"/>
-    <row r="58" spans="1:1025" ht="12.8"/>
-    <row r="59" spans="1:1025" ht="12.8"/>
-    <row r="60" spans="1:1025" ht="12.8"/>
-    <row r="61" spans="1:1025" ht="12.8"/>
-    <row r="62" spans="1:1025" ht="12.8"/>
-    <row r="63" spans="1:1025" ht="12.8"/>
-    <row r="64" spans="1:1025" ht="12.8"/>
-    <row r="65" spans="1:1025" ht="12.8"/>
-    <row r="66" spans="1:1025" ht="12.8"/>
-    <row r="67" spans="1:1025" ht="12.8"/>
-    <row r="68" spans="1:1025" ht="12.8"/>
-    <row r="69" spans="1:1025" ht="12.8"/>
-    <row r="70" spans="1:1025" ht="12.8"/>
-    <row r="71" spans="1:1025" ht="12.8"/>
-    <row r="72" spans="1:1025" ht="12.8"/>
-    <row r="73" spans="1:1025" ht="12.8"/>
-    <row r="74" spans="1:1025" ht="12.8"/>
-    <row r="75" spans="1:1025" ht="12.8"/>
-    <row r="76" spans="1:1025" ht="12.8"/>
-    <row r="77" spans="1:1025" ht="12.8"/>
-    <row r="78" spans="1:1025" ht="12.8"/>
-    <row r="79" spans="1:1025" ht="12.8"/>
-    <row r="80" spans="1:1025" ht="12.8"/>
-    <row r="81" spans="1:1025" ht="12.8"/>
-    <row r="82" spans="1:1025" ht="12.8"/>
-    <row r="83" spans="1:1025" ht="12.8"/>
-    <row r="84" spans="1:1025" ht="12.8"/>
-    <row r="85" spans="1:1025" ht="12.8"/>
-    <row r="86" spans="1:1025" ht="12.8"/>
-    <row r="87" spans="1:1025" ht="12.8"/>
-    <row r="88" spans="1:1025" ht="12.8"/>
-    <row r="89" spans="1:1025" ht="12.8"/>
-    <row r="90" spans="1:1025" ht="12.8"/>
-    <row r="91" spans="1:1025" ht="12.8"/>
-    <row r="92" spans="1:1025" ht="12.8"/>
-    <row r="93" spans="1:1025" ht="12.8"/>
-    <row r="94" spans="1:1025" ht="12.8"/>
-    <row r="95" spans="1:1025" ht="12.8"/>
-    <row r="96" spans="1:1025" ht="12.8"/>
-    <row r="97" spans="1:1025" ht="12.8"/>
-    <row r="98" spans="1:1025" ht="12.8"/>
-    <row r="99" spans="1:1025" ht="12.8"/>
-    <row r="100" spans="1:1025" ht="12.8"/>
-    <row r="101" spans="1:1025" ht="12.8"/>
-    <row r="102" spans="1:1025" ht="12.8"/>
-    <row r="103" spans="1:1025" ht="12.8"/>
-    <row r="104" spans="1:1025" ht="12.8"/>
-    <row r="105" spans="1:1025" ht="12.8"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;CArial,Regular"0&amp;A</oddHeader>
     <oddFooter>&amp;CArial,Regular"0Page &amp;P</oddFooter>
@@ -23735,31 +23770,28 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:AMK1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:IV1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="110">
+    <sheetView zoomScale="110" workbookViewId="0">
       <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" style="1" width="5.01" customWidth="1"/>
-    <col min="3" max="3" style="1" width="9.16" customWidth="1"/>
-    <col min="4" max="4" style="1" width="5.66" customWidth="1"/>
-    <col min="5" max="5" style="1" width="10.5" customWidth="1"/>
-    <col min="6" max="6" style="1" width="4.5" customWidth="1"/>
-    <col min="7" max="7" style="1" width="10" customWidth="1"/>
-    <col min="8" max="8" style="1" width="8.83" customWidth="1"/>
-    <col min="9" max="256" style="1" width="4.83" customWidth="1"/>
-    <col min="257" max="1025" style="2" width="5.01" customWidth="1"/>
-    <col min="1026" max="16384" style="2" width="9.142307692307693"/>
+    <col min="1" max="2" width="5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.796875" style="1" customWidth="1"/>
+    <col min="9" max="256" width="4.796875" style="1" customWidth="1"/>
+    <col min="257" max="1025" width="5" style="2" customWidth="1"/>
+    <col min="1026" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" customHeight="1" ht="11.25">
+    <row r="1" spans="1:8" ht="11.25" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -23787,9 +23819,8 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;CArial,Regular"0&amp;A</oddHeader>
     <oddFooter>&amp;CArial,Regular"0Page &amp;P</oddFooter>
